--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{C54D514F-5F64-46EF-9EAE-E46DE01C969D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E4B89F16-884C-4A0C-A757-6646CC079280}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A2690-B146-4866-B007-E3BA9AFE7C4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="405" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1290" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -96,14 +94,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -119,9 +117,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
-  <si>
-    <t>チケット予約システム</t>
-  </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -448,6 +443,10 @@
   <si>
     <t>横井、鈴木、栢沼、</t>
   </si>
+  <si>
+    <t>マインスイーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +456,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="aaa"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1386,6 +1385,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1395,37 +1499,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,95 +1551,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1542,12 +1580,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1564,39 +1596,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2164,14 +2163,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11:E12"/>
+      <selection pane="bottomRight" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="2.75" style="12" customWidth="1"/>
     <col min="3" max="3" width="2.25" style="12" customWidth="1"/>
@@ -2186,213 +2185,213 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="94" t="s">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="H1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="I1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="K1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="60">
+      <c r="L1" s="90">
         <v>43990</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="60">
+      <c r="M1" s="91"/>
+      <c r="N1" s="90">
         <v>43991</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="60">
+      <c r="O1" s="91"/>
+      <c r="P1" s="90">
         <v>43992</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="60">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90">
         <v>43993</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="60">
+      <c r="S1" s="91"/>
+      <c r="T1" s="90">
         <v>43994</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="60">
+      <c r="U1" s="91"/>
+      <c r="V1" s="90">
         <v>43997</v>
       </c>
-      <c r="W1" s="61"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
-    <row r="2" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="57" t="s">
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="114"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="93"/>
+      <c r="P2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="58"/>
-      <c r="P2" s="57" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="57" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="57" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="58"/>
-      <c r="V2" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="58"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
-    <row r="3" spans="1:27" ht="13.5" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="59" t="s">
+    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59" t="s">
+      <c r="U3" s="94"/>
+      <c r="V3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="59"/>
+      <c r="W3" s="94"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
-    <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="119"/>
+    <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="P4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="R4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="T4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="V4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="X4" s="45"/>
       <c r="Y4" s="45"/>
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
     </row>
-    <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="103" t="s">
+    <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="J5" s="17">
         <v>5</v>
@@ -2454,16 +2453,16 @@
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
     </row>
-    <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="125"/>
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2524,21 +2523,21 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
     </row>
-    <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="114"/>
+    <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="14">
@@ -2598,16 +2597,16 @@
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
     </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="115"/>
+    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2668,18 +2667,18 @@
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
     </row>
-    <row r="9" spans="1:27" ht="12" customHeight="1">
-      <c r="A9" s="71">
+    <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="66"/>
+      <c r="B9" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2701,14 +2700,14 @@
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
     </row>
-    <row r="10" spans="1:27" ht="12" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="67"/>
+    <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="111"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2730,28 +2729,28 @@
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
     </row>
-    <row r="11" spans="1:27" ht="12" customHeight="1">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70" t="s">
+    <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="110"/>
+      <c r="B11" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="64"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -2779,20 +2778,20 @@
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
     </row>
-    <row r="12" spans="1:27" ht="12" customHeight="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="65"/>
+    <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="111"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="54">
         <v>1</v>
@@ -2818,28 +2817,28 @@
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
     </row>
-    <row r="13" spans="1:27" ht="12" customHeight="1">
-      <c r="A13" s="71"/>
-      <c r="B13" s="70" t="s">
+    <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="110"/>
+      <c r="B13" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="64"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="8">
         <v>4</v>
@@ -2867,20 +2866,20 @@
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
     </row>
-    <row r="14" spans="1:27" ht="12" customHeight="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="65"/>
+    <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" s="54">
         <v>4</v>
@@ -2906,18 +2905,18 @@
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
     </row>
-    <row r="15" spans="1:27" ht="12" customHeight="1">
-      <c r="A15" s="71">
+    <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="110">
         <v>2</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="66"/>
+      <c r="B15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2942,14 +2941,14 @@
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
     </row>
-    <row r="16" spans="1:27" ht="12" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="67"/>
+    <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2974,28 +2973,28 @@
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
     </row>
-    <row r="17" spans="1:27" ht="12" customHeight="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="93" t="s">
+    <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="110"/>
+      <c r="B17" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="64"/>
+      <c r="F17" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" s="8">
         <v>5</v>
@@ -3023,14 +3022,14 @@
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
     </row>
-    <row r="18" spans="1:27" ht="12" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="65"/>
+    <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="111"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3058,28 +3057,28 @@
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
     </row>
-    <row r="19" spans="1:27" ht="12" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="81" t="s">
+    <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="126"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I19" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J19" s="43">
         <v>5</v>
@@ -3107,14 +3106,14 @@
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
     </row>
-    <row r="20" spans="1:27" ht="12" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="80"/>
+    <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3142,28 +3141,28 @@
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
     </row>
-    <row r="21" spans="1:27" ht="12" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="70" t="s">
+    <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="110"/>
+      <c r="B21" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="62" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="64"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3191,14 +3190,14 @@
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
     </row>
-    <row r="22" spans="1:27" ht="12" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="65"/>
+    <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3226,18 +3225,18 @@
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
     </row>
-    <row r="23" spans="1:27" ht="12" customHeight="1">
-      <c r="A23" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="120"/>
+    <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
@@ -3298,16 +3297,16 @@
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
     </row>
-    <row r="24" spans="1:27" ht="12" customHeight="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="121"/>
+    <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3368,18 +3367,18 @@
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
     </row>
-    <row r="25" spans="1:27" ht="12" customHeight="1">
-      <c r="A25" s="71">
+    <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="110">
         <v>1</v>
       </c>
-      <c r="B25" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="66"/>
+      <c r="B25" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3404,14 +3403,14 @@
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
     </row>
-    <row r="26" spans="1:27" ht="12" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="67"/>
+    <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="111"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3436,26 +3435,26 @@
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
     </row>
-    <row r="27" spans="1:27" ht="12" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="64"/>
+    <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="110"/>
+      <c r="B27" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J27" s="8">
         <v>1</v>
@@ -3483,14 +3482,14 @@
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
     </row>
-    <row r="28" spans="1:27" ht="12" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="65"/>
+    <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="111"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3518,26 +3517,26 @@
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
     </row>
-    <row r="29" spans="1:27" ht="12" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="64"/>
+    <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="110"/>
+      <c r="B29" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29" s="8">
         <v>4</v>
@@ -3565,14 +3564,14 @@
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
     </row>
-    <row r="30" spans="1:27" ht="12" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="65"/>
+    <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="111"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3600,20 +3599,20 @@
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
     </row>
-    <row r="31" spans="1:27" ht="12" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="70" t="s">
+    <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="110"/>
+      <c r="B31" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="64"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="69"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3641,14 +3640,14 @@
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
     </row>
-    <row r="32" spans="1:27" ht="12" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="65"/>
+    <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="111"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3676,26 +3675,26 @@
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
     </row>
-    <row r="33" spans="1:27" ht="12" customHeight="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="70" t="s">
+    <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="110"/>
+      <c r="B33" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="74"/>
-      <c r="E33" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="64"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="69"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -3723,14 +3722,14 @@
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
     </row>
-    <row r="34" spans="1:27" ht="12" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="65"/>
+    <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="111"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3758,18 +3757,18 @@
       <c r="Z34" s="45"/>
       <c r="AA34" s="45"/>
     </row>
-    <row r="35" spans="1:27" ht="12" customHeight="1">
-      <c r="A35" s="71">
+    <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="110">
         <v>2</v>
       </c>
-      <c r="B35" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="66"/>
+      <c r="B35" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3794,14 +3793,14 @@
       <c r="Z35" s="45"/>
       <c r="AA35" s="45"/>
     </row>
-    <row r="36" spans="1:27" ht="12" customHeight="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="67"/>
+    <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="111"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3826,26 +3825,26 @@
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
     </row>
-    <row r="37" spans="1:27" ht="12" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="73" t="s">
+    <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="110"/>
+      <c r="B37" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="64"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J37" s="8">
         <v>5</v>
@@ -3875,14 +3874,14 @@
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
     </row>
-    <row r="38" spans="1:27" ht="12" customHeight="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="65"/>
+    <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="111"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3910,26 +3909,26 @@
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
     </row>
-    <row r="39" spans="1:27" ht="12" customHeight="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="81" t="s">
+    <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="126"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="66"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J39" s="43">
         <v>5</v>
@@ -3957,14 +3956,14 @@
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
     </row>
-    <row r="40" spans="1:27" ht="12" customHeight="1">
-      <c r="A40" s="78"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="80"/>
+    <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3992,26 +3991,26 @@
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
     </row>
-    <row r="41" spans="1:27" ht="12" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="B41" s="70" t="s">
+    <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="110"/>
+      <c r="B41" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="64"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="69"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -4039,14 +4038,14 @@
       <c r="Z41" s="45"/>
       <c r="AA41" s="45"/>
     </row>
-    <row r="42" spans="1:27" ht="12" customHeight="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="65"/>
+    <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="111"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4074,18 +4073,18 @@
       <c r="Z42" s="45"/>
       <c r="AA42" s="45"/>
     </row>
-    <row r="43" spans="1:27" ht="12" customHeight="1">
-      <c r="A43" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="120"/>
+    <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -4146,20 +4145,20 @@
       <c r="Z43" s="45"/>
       <c r="AA43" s="45"/>
     </row>
-    <row r="44" spans="1:27" ht="12" customHeight="1">
-      <c r="A44" s="86"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="121"/>
+    <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="127">
+      <c r="K44" s="57">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
         <v>0</v>
       </c>
@@ -4216,18 +4215,18 @@
       <c r="Z44" s="45"/>
       <c r="AA44" s="45"/>
     </row>
-    <row r="45" spans="1:27" ht="12" customHeight="1">
-      <c r="A45" s="71">
+    <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="110">
         <v>1</v>
       </c>
-      <c r="B45" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="66"/>
+      <c r="B45" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4252,14 +4251,14 @@
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
     </row>
-    <row r="46" spans="1:27" ht="12" customHeight="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="67"/>
+    <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4284,26 +4283,26 @@
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
     </row>
-    <row r="47" spans="1:27" ht="12" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="81"/>
-      <c r="G47" s="126"/>
+    <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J47" s="43">
         <v>5</v>
@@ -4331,14 +4330,14 @@
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
     </row>
-    <row r="48" spans="1:27" ht="12" customHeight="1">
-      <c r="A48" s="78"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="80"/>
+    <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4366,26 +4365,26 @@
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
     </row>
-    <row r="49" spans="1:27" ht="12" customHeight="1">
-      <c r="A49" s="71"/>
-      <c r="B49" s="70" t="s">
+    <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="110"/>
+      <c r="B49" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="64"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="69"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J49" s="8">
         <v>5</v>
@@ -4415,14 +4414,14 @@
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
     </row>
-    <row r="50" spans="1:27" ht="12" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="65"/>
+    <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="111"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4450,26 +4449,26 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
     </row>
-    <row r="51" spans="1:27" ht="12" customHeight="1">
-      <c r="A51" s="77"/>
-      <c r="B51" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="126"/>
+    <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J51" s="43">
         <v>5</v>
@@ -4499,14 +4498,14 @@
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
     </row>
-    <row r="52" spans="1:27" ht="12" customHeight="1">
-      <c r="A52" s="78"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="80"/>
+    <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4534,18 +4533,18 @@
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
     </row>
-    <row r="53" spans="1:27" ht="12" customHeight="1">
-      <c r="A53" s="71">
+    <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="110">
         <v>2</v>
       </c>
-      <c r="B53" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="66"/>
+      <c r="B53" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="73"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4570,14 +4569,14 @@
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
     </row>
-    <row r="54" spans="1:27" ht="12" customHeight="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="67"/>
+    <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4602,26 +4601,26 @@
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
     </row>
-    <row r="55" spans="1:27" ht="12" customHeight="1">
-      <c r="A55" s="71"/>
-      <c r="B55" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="73" t="s">
+    <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="110"/>
+      <c r="B55" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="63"/>
+      <c r="E55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="64"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J55" s="8">
         <v>5</v>
@@ -4649,14 +4648,14 @@
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
     </row>
-    <row r="56" spans="1:27" ht="12" customHeight="1">
-      <c r="A56" s="72"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="65"/>
+    <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="111"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4684,26 +4683,26 @@
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
     </row>
-    <row r="57" spans="1:27" ht="12" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="62" t="s">
+    <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="110"/>
+      <c r="B57" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="62"/>
-      <c r="G57" s="64"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="69"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J57" s="8">
         <v>5</v>
@@ -4731,14 +4730,14 @@
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
     </row>
-    <row r="58" spans="1:27" ht="12" customHeight="1">
-      <c r="A58" s="72"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="65"/>
+    <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="111"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4766,26 +4765,26 @@
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
     </row>
-    <row r="59" spans="1:27" ht="12" customHeight="1">
-      <c r="A59" s="71"/>
-      <c r="B59" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="64"/>
+    <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="110"/>
+      <c r="B59" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="63"/>
+      <c r="E59" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="69"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J59" s="8">
         <v>1</v>
@@ -4813,14 +4812,14 @@
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
     </row>
-    <row r="60" spans="1:27" ht="12" customHeight="1">
-      <c r="A60" s="72"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="65"/>
+    <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="111"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4828,7 +4827,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="54"/>
       <c r="K60" s="10">
-        <f t="shared" ref="K55:K60" si="18">SUM(L60:O60)</f>
+        <f t="shared" ref="K60" si="18">SUM(L60:O60)</f>
         <v>0</v>
       </c>
       <c r="L60" s="37"/>
@@ -4848,18 +4847,18 @@
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
     </row>
-    <row r="61" spans="1:27" ht="12" customHeight="1">
-      <c r="A61" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="120"/>
+    <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -4920,16 +4919,16 @@
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
     </row>
-    <row r="62" spans="1:27" ht="12" customHeight="1">
-      <c r="A62" s="86"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="121"/>
+    <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -4990,18 +4989,18 @@
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
     </row>
-    <row r="63" spans="1:27" ht="12" customHeight="1">
-      <c r="A63" s="77">
+    <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
-      <c r="B63" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="66"/>
+      <c r="B63" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="73"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5026,14 +5025,14 @@
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
     </row>
-    <row r="64" spans="1:27" ht="12" customHeight="1">
-      <c r="A64" s="78"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="67"/>
+    <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5058,26 +5057,26 @@
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
     </row>
-    <row r="65" spans="1:27" ht="12" customHeight="1">
-      <c r="A65" s="77"/>
-      <c r="B65" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="126"/>
+    <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J65" s="43">
         <v>5</v>
@@ -5105,14 +5104,14 @@
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
     </row>
-    <row r="66" spans="1:27" ht="12" customHeight="1">
-      <c r="A66" s="78"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="80"/>
+    <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5140,26 +5139,26 @@
       <c r="Z66" s="45"/>
       <c r="AA66" s="45"/>
     </row>
-    <row r="67" spans="1:27" ht="12" customHeight="1">
-      <c r="A67" s="77"/>
-      <c r="B67" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="D67" s="74"/>
-      <c r="E67" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="81"/>
-      <c r="G67" s="126"/>
+    <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J67" s="43">
         <v>5</v>
@@ -5187,14 +5186,14 @@
       <c r="Z67" s="45"/>
       <c r="AA67" s="45"/>
     </row>
-    <row r="68" spans="1:27" ht="12" customHeight="1">
-      <c r="A68" s="78"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="80"/>
+    <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5222,26 +5221,26 @@
       <c r="Z68" s="45"/>
       <c r="AA68" s="45"/>
     </row>
-    <row r="69" spans="1:27" ht="12" customHeight="1">
-      <c r="A69" s="77"/>
-      <c r="B69" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="74"/>
-      <c r="E69" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F69" s="81"/>
-      <c r="G69" s="126"/>
+    <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="63"/>
+      <c r="E69" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="66"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J69" s="43">
         <v>5</v>
@@ -5269,14 +5268,14 @@
       <c r="Z69" s="45"/>
       <c r="AA69" s="45"/>
     </row>
-    <row r="70" spans="1:27" ht="12" customHeight="1">
-      <c r="A70" s="78"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="80"/>
+    <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5304,18 +5303,18 @@
       <c r="Z70" s="45"/>
       <c r="AA70" s="45"/>
     </row>
-    <row r="71" spans="1:27" ht="12" customHeight="1">
-      <c r="A71" s="77">
+    <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="58">
         <v>2</v>
       </c>
-      <c r="B71" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="66"/>
+      <c r="B71" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="73"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5340,14 +5339,14 @@
       <c r="Z71" s="45"/>
       <c r="AA71" s="45"/>
     </row>
-    <row r="72" spans="1:27" ht="12" customHeight="1">
-      <c r="A72" s="78"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="67"/>
+    <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="59"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5372,26 +5371,26 @@
       <c r="Z72" s="45"/>
       <c r="AA72" s="45"/>
     </row>
-    <row r="73" spans="1:27" ht="12" customHeight="1">
-      <c r="A73" s="77"/>
-      <c r="B73" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73" s="73" t="s">
+    <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="74"/>
-      <c r="E73" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" s="81"/>
-      <c r="G73" s="126"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J73" s="43">
         <v>5</v>
@@ -5419,14 +5418,14 @@
       <c r="Z73" s="45"/>
       <c r="AA73" s="45"/>
     </row>
-    <row r="74" spans="1:27" ht="12" customHeight="1">
-      <c r="A74" s="78"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="80"/>
+    <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5454,26 +5453,26 @@
       <c r="Z74" s="45"/>
       <c r="AA74" s="45"/>
     </row>
-    <row r="75" spans="1:27" ht="12" customHeight="1">
-      <c r="A75" s="77"/>
-      <c r="B75" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="74"/>
-      <c r="E75" s="81" t="s">
+    <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="F75" s="81"/>
-      <c r="G75" s="126"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J75" s="43">
         <v>5</v>
@@ -5501,14 +5500,14 @@
       <c r="Z75" s="45"/>
       <c r="AA75" s="45"/>
     </row>
-    <row r="76" spans="1:27" ht="12" customHeight="1">
-      <c r="A76" s="78"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="80"/>
+    <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5536,26 +5535,26 @@
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
     </row>
-    <row r="77" spans="1:27" ht="12" customHeight="1">
-      <c r="A77" s="77"/>
-      <c r="B77" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="126"/>
+    <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="63"/>
+      <c r="E77" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="66"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I77" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J77" s="43">
         <v>1</v>
@@ -5583,14 +5582,14 @@
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
     </row>
-    <row r="78" spans="1:27" ht="12" customHeight="1">
-      <c r="A78" s="78"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="80"/>
+    <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5618,18 +5617,18 @@
       <c r="Z78" s="45"/>
       <c r="AA78" s="45"/>
     </row>
-    <row r="79" spans="1:27" ht="12" customHeight="1">
-      <c r="A79" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="120"/>
+    <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
@@ -5690,16 +5689,16 @@
       <c r="Z79" s="45"/>
       <c r="AA79" s="45"/>
     </row>
-    <row r="80" spans="1:27" ht="12" customHeight="1">
-      <c r="A80" s="86"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="121"/>
+    <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -5760,20 +5759,20 @@
       <c r="Z80" s="45"/>
       <c r="AA80" s="45"/>
     </row>
-    <row r="81" spans="1:27" ht="12" customHeight="1">
-      <c r="A81" s="77">
+    <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="F81" s="68"/>
-      <c r="G81" s="66"/>
+      <c r="B81" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="73"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="76"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5798,14 +5797,14 @@
       <c r="Z81" s="45"/>
       <c r="AA81" s="45"/>
     </row>
-    <row r="82" spans="1:27" ht="12" customHeight="1">
-      <c r="A82" s="78"/>
-      <c r="B82" s="75"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="67"/>
+    <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5830,26 +5829,26 @@
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
     </row>
-    <row r="83" spans="1:27" ht="12" customHeight="1">
-      <c r="A83" s="77"/>
-      <c r="B83" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="81"/>
-      <c r="G83" s="126"/>
+    <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I83" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J83" s="43">
         <v>3</v>
@@ -5879,14 +5878,14 @@
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
     </row>
-    <row r="84" spans="1:27" ht="12" customHeight="1">
-      <c r="A84" s="78"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="80"/>
+    <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5914,26 +5913,26 @@
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
     </row>
-    <row r="85" spans="1:27" ht="12" customHeight="1">
-      <c r="A85" s="77"/>
-      <c r="B85" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="74"/>
-      <c r="E85" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="81"/>
-      <c r="G85" s="126"/>
+    <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="63"/>
+      <c r="E85" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="66"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I85" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J85" s="43">
         <v>2</v>
@@ -5963,14 +5962,14 @@
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
     </row>
-    <row r="86" spans="1:27" ht="12" customHeight="1">
-      <c r="A86" s="78"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="80"/>
+    <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5998,18 +5997,18 @@
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
     </row>
-    <row r="87" spans="1:27" ht="12" customHeight="1">
-      <c r="A87" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="120"/>
+    <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
@@ -6070,16 +6069,16 @@
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
     </row>
-    <row r="88" spans="1:27" ht="12" customHeight="1">
-      <c r="A88" s="86"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="121"/>
+    <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -6140,18 +6139,18 @@
       <c r="Z88" s="45"/>
       <c r="AA88" s="45"/>
     </row>
-    <row r="89" spans="1:27" ht="12" customHeight="1">
-      <c r="A89" s="77">
+    <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="58">
         <v>1</v>
       </c>
-      <c r="B89" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" s="91"/>
-      <c r="D89" s="74"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="66"/>
+      <c r="B89" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="73"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6176,14 +6175,14 @@
       <c r="Z89" s="45"/>
       <c r="AA89" s="45"/>
     </row>
-    <row r="90" spans="1:27" ht="12" customHeight="1">
-      <c r="A90" s="78"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="67"/>
+    <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6208,26 +6207,26 @@
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
     </row>
-    <row r="91" spans="1:27" ht="12" customHeight="1">
-      <c r="A91" s="77"/>
-      <c r="B91" s="79" t="s">
+    <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="74"/>
-      <c r="E91" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="81"/>
-      <c r="G91" s="126"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I91" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J91" s="43">
         <v>2</v>
@@ -6257,14 +6256,14 @@
       <c r="Z91" s="45"/>
       <c r="AA91" s="45"/>
     </row>
-    <row r="92" spans="1:27" ht="12" customHeight="1">
-      <c r="A92" s="78"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="80"/>
+    <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6292,20 +6291,20 @@
       <c r="Z92" s="45"/>
       <c r="AA92" s="45"/>
     </row>
-    <row r="93" spans="1:27" ht="12" customHeight="1">
-      <c r="A93" s="77"/>
-      <c r="B93" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="74"/>
-      <c r="E93" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F93" s="81"/>
-      <c r="G93" s="126"/>
+    <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="58"/>
+      <c r="B93" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6333,14 +6332,14 @@
       <c r="Z93" s="45"/>
       <c r="AA93" s="45"/>
     </row>
-    <row r="94" spans="1:27" ht="12" customHeight="1">
-      <c r="A94" s="78"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="80"/>
+    <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="59"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6368,18 +6367,18 @@
       <c r="Z94" s="45"/>
       <c r="AA94" s="45"/>
     </row>
-    <row r="95" spans="1:27" ht="12" customHeight="1">
-      <c r="A95" s="77">
+    <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="58">
         <v>2</v>
       </c>
-      <c r="B95" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="66"/>
+      <c r="B95" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="73"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6404,14 +6403,14 @@
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
     </row>
-    <row r="96" spans="1:27" ht="12" customHeight="1">
-      <c r="A96" s="78"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="67"/>
+    <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="59"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6436,26 +6435,26 @@
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
     </row>
-    <row r="97" spans="1:27" ht="12" customHeight="1">
-      <c r="A97" s="77"/>
-      <c r="B97" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="74"/>
-      <c r="E97" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F97" s="81"/>
-      <c r="G97" s="126"/>
+    <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C97" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="63"/>
+      <c r="E97" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I97" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J97" s="43">
         <v>5</v>
@@ -6483,14 +6482,14 @@
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
     </row>
-    <row r="98" spans="1:27" ht="12" customHeight="1">
-      <c r="A98" s="78"/>
-      <c r="B98" s="80"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="80"/>
+    <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6518,26 +6517,26 @@
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
     </row>
-    <row r="99" spans="1:27" ht="12" customHeight="1">
-      <c r="A99" s="77"/>
-      <c r="B99" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99" s="74"/>
-      <c r="E99" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F99" s="81"/>
-      <c r="G99" s="126"/>
+    <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="63"/>
+      <c r="E99" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="66"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I99" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J99" s="43">
         <v>1</v>
@@ -6565,14 +6564,14 @@
       <c r="Z99" s="45"/>
       <c r="AA99" s="45"/>
     </row>
-    <row r="100" spans="1:27" ht="12" customHeight="1">
-      <c r="A100" s="78"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="80"/>
+    <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6600,18 +6599,18 @@
       <c r="Z100" s="45"/>
       <c r="AA100" s="45"/>
     </row>
-    <row r="101" spans="1:27" ht="12" customHeight="1">
-      <c r="A101" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="B101" s="84"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="120"/>
+    <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
@@ -6672,16 +6671,16 @@
       <c r="Z101" s="45"/>
       <c r="AA101" s="45"/>
     </row>
-    <row r="102" spans="1:27" ht="12" customHeight="1">
-      <c r="A102" s="86"/>
-      <c r="B102" s="87"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="121"/>
+    <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="89"/>
       <c r="H102" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -6742,18 +6741,18 @@
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
     </row>
-    <row r="103" spans="1:27" ht="12" customHeight="1">
-      <c r="A103" s="77">
+    <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="58">
         <v>1</v>
       </c>
-      <c r="B103" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="91"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="66"/>
+      <c r="B103" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="73"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6778,14 +6777,14 @@
       <c r="Z103" s="45"/>
       <c r="AA103" s="45"/>
     </row>
-    <row r="104" spans="1:27" ht="12" customHeight="1">
-      <c r="A104" s="78"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="67"/>
+    <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="59"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6810,26 +6809,26 @@
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
     </row>
-    <row r="105" spans="1:27" ht="12" customHeight="1">
-      <c r="A105" s="77"/>
-      <c r="B105" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="74"/>
-      <c r="E105" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F105" s="81"/>
-      <c r="G105" s="126"/>
+    <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C105" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" s="63"/>
+      <c r="E105" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I105" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J105" s="43">
         <v>5</v>
@@ -6857,14 +6856,14 @@
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
     </row>
-    <row r="106" spans="1:27" ht="12" customHeight="1">
-      <c r="A106" s="78"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="75"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="80"/>
+    <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6892,26 +6891,26 @@
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
     </row>
-    <row r="107" spans="1:27" ht="12" customHeight="1">
-      <c r="A107" s="77"/>
-      <c r="B107" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D107" s="74"/>
-      <c r="E107" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="81"/>
-      <c r="G107" s="126"/>
+    <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="58"/>
+      <c r="B107" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I107" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J107" s="43">
         <v>1</v>
@@ -6939,14 +6938,14 @@
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
     </row>
-    <row r="108" spans="1:27" ht="12" customHeight="1">
-      <c r="A108" s="78"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="75"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="80"/>
+    <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="59"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6974,18 +6973,18 @@
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
     </row>
-    <row r="109" spans="1:27" ht="12" customHeight="1">
-      <c r="A109" s="77">
+    <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="58">
         <v>2</v>
       </c>
-      <c r="B109" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="66"/>
+      <c r="B109" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7010,14 +7009,14 @@
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
     </row>
-    <row r="110" spans="1:27" ht="12" customHeight="1">
-      <c r="A110" s="78"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="67"/>
+    <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="59"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7042,26 +7041,26 @@
       <c r="Z110" s="45"/>
       <c r="AA110" s="45"/>
     </row>
-    <row r="111" spans="1:27" ht="12" customHeight="1">
-      <c r="A111" s="77"/>
-      <c r="B111" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="73" t="s">
+    <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="63"/>
+      <c r="E111" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D111" s="74"/>
-      <c r="E111" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F111" s="81"/>
-      <c r="G111" s="126"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I111" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J111" s="43">
         <v>5</v>
@@ -7089,14 +7088,14 @@
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
     </row>
-    <row r="112" spans="1:27" ht="12" customHeight="1">
-      <c r="A112" s="78"/>
-      <c r="B112" s="80"/>
-      <c r="C112" s="75"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="80"/>
+    <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7124,26 +7123,26 @@
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
     </row>
-    <row r="113" spans="1:27" ht="12" customHeight="1">
-      <c r="A113" s="77"/>
-      <c r="B113" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="74"/>
-      <c r="E113" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F113" s="81"/>
-      <c r="G113" s="126"/>
+    <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="58"/>
+      <c r="B113" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" s="63"/>
+      <c r="E113" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="66"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I113" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J113" s="43">
         <v>1</v>
@@ -7171,14 +7170,14 @@
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
     </row>
-    <row r="114" spans="1:27" ht="12" customHeight="1">
-      <c r="A114" s="78"/>
-      <c r="B114" s="80"/>
-      <c r="C114" s="75"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="82"/>
-      <c r="F114" s="82"/>
-      <c r="G114" s="80"/>
+    <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7206,7 +7205,7 @@
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.15">
       <c r="L115" s="36"/>
       <c r="M115" s="36"/>
       <c r="N115" s="36"/>
@@ -7225,6 +7224,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7249,309 +7551,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L9:W22 L45:W54 L81:W86 L25:O40 L55:M60 O55:W60 L63:W78 L103:W114">
@@ -7809,18 +7808,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7842,18 +7841,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692A2690-B146-4866-B007-E3BA9AFE7C4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76677A2-FDCD-4737-87B4-6AA42A239AF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1290" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="690" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -1388,6 +1388,66 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1400,203 +1460,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2164,10 +2164,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:D4"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2186,19 +2186,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2210,132 +2210,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="61">
         <v>43990</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="90">
+      <c r="M1" s="62"/>
+      <c r="N1" s="61">
         <v>43991</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90">
+      <c r="O1" s="62"/>
+      <c r="P1" s="61">
         <v>43992</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="61">
         <v>43993</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="90">
+      <c r="S1" s="62"/>
+      <c r="T1" s="61">
         <v>43994</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="90">
+      <c r="U1" s="62"/>
+      <c r="V1" s="61">
         <v>43997</v>
       </c>
-      <c r="W1" s="91"/>
+      <c r="W1" s="62"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="92" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="92" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="93"/>
+      <c r="W2" s="59"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="94" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94"/>
+      <c r="W3" s="60"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="106"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2378,15 +2378,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2433,8 +2433,8 @@
         <v>6.41</v>
       </c>
       <c r="T5" s="17">
-        <f t="shared" si="0"/>
-        <v>4.07</v>
+        <f>SUM(T7,T23,T43,T61,T79,T87,T101)</f>
+        <v>0</v>
       </c>
       <c r="U5" s="17">
         <f t="shared" si="0"/>
@@ -2454,13 +2454,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="101"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2524,15 +2524,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2598,13 +2598,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="126"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2668,17 +2668,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2701,13 +2701,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2730,21 +2730,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2779,13 +2779,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2818,21 +2818,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2867,13 +2867,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2906,17 +2906,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2942,13 +2942,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2974,21 +2974,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3023,13 +3023,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3058,21 +3058,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3107,13 +3107,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3142,21 +3142,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3191,13 +3191,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3226,15 +3226,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3298,13 +3298,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3368,17 +3368,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3404,13 +3404,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3436,19 +3436,19 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="71"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3483,13 +3483,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3518,19 +3518,19 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="110"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="71"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3565,13 +3565,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3600,19 +3600,19 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="110"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="71"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3641,13 +3641,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3676,19 +3676,19 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="69"/>
-      <c r="G33" s="71"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3723,13 +3723,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3758,17 +3758,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="110">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3794,13 +3794,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3826,19 +3826,19 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="110"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="71"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3875,13 +3875,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3910,19 +3910,19 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="127"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3957,13 +3957,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3992,19 +3992,19 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="110"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="69"/>
-      <c r="G41" s="71"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4039,13 +4039,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4074,15 +4074,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4146,13 +4146,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4216,17 +4216,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="110">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4252,13 +4252,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4284,19 +4284,19 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="127"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4331,13 +4331,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4366,19 +4366,19 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="71"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4415,13 +4415,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4450,19 +4450,19 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="78"/>
+      <c r="B51" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4499,13 +4499,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="61"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4534,17 +4534,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110">
+      <c r="A53" s="72">
         <v>2</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4570,13 +4570,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4602,19 +4602,19 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="71"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4649,13 +4649,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4684,19 +4684,19 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="110"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="69" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="71"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4731,13 +4731,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4766,19 +4766,19 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="69" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="71"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4813,13 +4813,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4848,15 +4848,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -4920,13 +4920,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="89"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -4990,17 +4990,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="78">
         <v>1</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5026,13 +5026,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5058,19 +5058,19 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="127"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5105,13 +5105,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5140,19 +5140,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5187,13 +5187,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5222,19 +5222,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="66" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="68"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="127"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5269,13 +5269,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5304,17 +5304,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
+      <c r="A71" s="78">
         <v>2</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5340,13 +5340,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5372,19 +5372,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="127"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5419,13 +5419,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5454,19 +5454,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="78"/>
+      <c r="B75" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5501,13 +5501,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5536,19 +5536,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="66" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="66"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="127"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5583,13 +5583,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="61"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5618,15 +5618,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="88"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="121"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5690,13 +5690,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="122"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5760,19 +5760,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="78">
         <v>1</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="92"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5798,13 +5798,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5830,19 +5830,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5879,13 +5879,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5914,19 +5914,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="78"/>
+      <c r="B85" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="68"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="127"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -5963,13 +5963,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="61"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5998,15 +5998,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="88"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6070,13 +6070,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="89"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="122"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6140,17 +6140,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58">
+      <c r="A89" s="78">
         <v>1</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6176,13 +6176,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6208,19 +6208,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="127"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6257,13 +6257,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="61"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6292,19 +6292,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6333,13 +6333,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6368,17 +6368,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="78">
         <v>2</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6404,13 +6404,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6436,19 +6436,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="78"/>
+      <c r="B97" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="127"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6483,13 +6483,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6518,19 +6518,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="78"/>
+      <c r="B99" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="66" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="68"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="127"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6565,13 +6565,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="61"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6600,15 +6600,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="88"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="121"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6672,13 +6672,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="89"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="122"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6742,17 +6742,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="78">
         <v>1</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6778,13 +6778,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6810,19 +6810,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="78"/>
+      <c r="B105" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="127"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6857,13 +6857,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="61"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6892,19 +6892,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="127"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6939,13 +6939,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6974,17 +6974,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="78">
         <v>2</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7010,13 +7010,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="68"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7042,19 +7042,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="78"/>
+      <c r="B111" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="127"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7089,13 +7089,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="61"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="81"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7124,19 +7124,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="58"/>
-      <c r="B113" s="60" t="s">
+      <c r="A113" s="78"/>
+      <c r="B113" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="66" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="66"/>
-      <c r="G113" s="68"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="127"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7171,13 +7171,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="61"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7224,44 +7224,271 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7286,271 +7513,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L9:W22 L45:W54 L81:W86 L25:O40 L55:M60 O55:W60 L63:W78 L103:W114">
@@ -7808,18 +7808,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7841,18 +7841,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76677A2-FDCD-4737-87B4-6AA42A239AF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA64E3-3446-47AF-8DAE-56733A1B8966}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="690" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -423,9 +423,6 @@
     <t>更新</t>
   </si>
   <si>
-    <t>横井、鈴木、栢沼、浜崎</t>
-  </si>
-  <si>
     <t>浜崎</t>
   </si>
   <si>
@@ -445,6 +442,17 @@
   </si>
   <si>
     <t>マインスイーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、浜崎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1388,6 +1396,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1397,37 +1507,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,95 +1559,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1544,12 +1588,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1567,36 +1605,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2163,11 +2171,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="J95" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2186,19 +2194,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="A1" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2210,132 +2218,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61">
+      <c r="L1" s="90">
         <v>43990</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="61">
+      <c r="M1" s="91"/>
+      <c r="N1" s="90">
         <v>43991</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="61">
+      <c r="O1" s="91"/>
+      <c r="P1" s="90">
         <v>43992</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="61">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90">
         <v>43993</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="61">
+      <c r="S1" s="91"/>
+      <c r="T1" s="90">
         <v>43994</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61">
+      <c r="U1" s="91"/>
+      <c r="V1" s="90">
         <v>43997</v>
       </c>
-      <c r="W1" s="62"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="59"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="94"/>
+      <c r="V3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="60"/>
+      <c r="W3" s="94"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2378,15 +2386,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2398,11 +2406,11 @@
       </c>
       <c r="K5" s="38">
         <f>SUM(K7,K23,K43)</f>
-        <v>34.299999999999997</v>
+        <v>35.03</v>
       </c>
       <c r="L5" s="17">
         <f>SUM(L7,L23,L43,L61,L79,L87,L101)</f>
-        <v>7.38</v>
+        <v>8.11</v>
       </c>
       <c r="M5" s="17">
         <f t="shared" ref="M5:W5" si="0">SUM(M7,M23,M43,M61,M79,M87,L101)</f>
@@ -2454,13 +2462,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="126"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2468,11 +2476,11 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" si="1"/>
@@ -2524,15 +2532,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>4.97</v>
       </c>
       <c r="L7" s="29">
-        <f t="shared" si="2"/>
+        <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>4.97</v>
       </c>
       <c r="M7" s="29">
@@ -2598,13 +2606,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2612,11 +2620,11 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="4">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="L8" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
+        <v>4.97</v>
       </c>
       <c r="M8" s="30">
         <f t="shared" si="4"/>
@@ -2668,17 +2676,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2701,13 +2709,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2730,21 +2738,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="65"/>
+      <c r="F11" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2779,18 +2787,18 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="54">
@@ -2798,9 +2806,11 @@
       </c>
       <c r="K12" s="10">
         <f>SUM(L12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0.16</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
@@ -2818,27 +2828,27 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="65"/>
+      <c r="F13" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J13" s="8">
         <v>4</v>
@@ -2867,28 +2877,30 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>69</v>
+      <c r="I14" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="J14" s="54">
         <v>4</v>
       </c>
       <c r="K14" s="10">
         <f>SUM(L14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="32"/>
+        <v>2.6</v>
+      </c>
+      <c r="L14" s="31">
+        <v>2.6</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -2906,17 +2918,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="110">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2942,13 +2954,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2974,21 +2986,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="65"/>
+      <c r="F17" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3000,7 +3012,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K22" si="6">SUM(L17:O17)</f>
+        <f t="shared" ref="K17:K21" si="6">SUM(L17:O17)</f>
         <v>1.25</v>
       </c>
       <c r="L17" s="31">
@@ -3023,24 +3035,30 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="66"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="54">
+        <v>5</v>
+      </c>
       <c r="K18" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="32"/>
+        <v>1.25</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1.25</v>
+      </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
@@ -3058,21 +3076,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="127"/>
+      <c r="F19" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3107,24 +3125,30 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="I20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="55">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="42"/>
+        <v>0.8</v>
+      </c>
+      <c r="L20" s="41">
+        <v>0.8</v>
+      </c>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -3142,21 +3166,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="65"/>
+      <c r="F21" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3191,24 +3215,30 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="54">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="32"/>
+        <f>SUM(L22:O22)</f>
+        <v>0.16</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0.16</v>
+      </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
@@ -3226,15 +3256,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3242,11 +3272,11 @@
       <c r="J23" s="20"/>
       <c r="K23" s="53">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>4.62</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="L23" s="33">
         <f t="shared" ref="L23:O23" si="7">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
-        <v>2.41</v>
+        <v>3.14</v>
       </c>
       <c r="M23" s="33">
         <f t="shared" si="7"/>
@@ -3298,13 +3328,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3368,17 +3398,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="110">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3404,13 +3434,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3436,19 +3466,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="71"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3483,13 +3515,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3518,35 +3550,37 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="63" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="65"/>
+      <c r="F29" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="71"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" s="8">
         <v>4</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="11"/>
-        <v>0.34</v>
+        <f>SUM(L29:O29)</f>
+        <v>2</v>
       </c>
       <c r="L29" s="31">
-        <v>0.34</v>
+        <v>2</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -3565,13 +3599,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3600,30 +3634,38 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="63"/>
-      <c r="G31" s="65"/>
+      <c r="F31" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="71"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="8"/>
+      <c r="I31" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
       <c r="K31" s="9">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="31"/>
+        <v>0.32</v>
+      </c>
+      <c r="L31" s="31">
+        <v>0.32</v>
+      </c>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
@@ -3641,13 +3683,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3676,25 +3718,27 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="63" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="65"/>
+      <c r="F33" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="71"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -3723,13 +3767,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3758,17 +3802,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="110">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="67"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3794,13 +3838,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3826,19 +3870,19 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="63" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="63"/>
-      <c r="G37" s="65"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3851,11 +3895,9 @@
       </c>
       <c r="K37" s="9">
         <f t="shared" ref="K37:K42" si="12">SUM(L37:O37)</f>
-        <v>2.5</v>
-      </c>
-      <c r="L37" s="31">
         <v>1.25</v>
       </c>
+      <c r="L37" s="31"/>
       <c r="M37" s="31">
         <v>1.25</v>
       </c>
@@ -3875,13 +3917,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3910,19 +3952,19 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="82" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="82"/>
-      <c r="G39" s="127"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3957,13 +3999,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="81"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3992,19 +4034,19 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="63" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="63"/>
-      <c r="G41" s="65"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4039,13 +4081,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="66"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4074,15 +4116,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="121"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4146,13 +4188,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="122"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4216,17 +4258,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="110">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4252,13 +4294,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="68"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4284,19 +4326,19 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="82" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="127"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4331,13 +4373,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="81"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4366,19 +4408,19 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="110"/>
+      <c r="B49" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="63" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4415,13 +4457,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4450,19 +4492,19 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="80" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="82" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="82"/>
-      <c r="G51" s="127"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4499,13 +4541,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="81"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4534,17 +4576,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72">
+      <c r="A53" s="110">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4570,13 +4612,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="68"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4602,19 +4644,19 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4649,13 +4691,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4684,19 +4726,19 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="110"/>
+      <c r="B57" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4731,13 +4773,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="66"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4766,19 +4808,19 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="63"/>
-      <c r="G59" s="65"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4813,13 +4855,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="66"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4848,15 +4890,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -4920,13 +4962,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="122"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -4990,17 +5032,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5026,13 +5068,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="68"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5058,19 +5100,19 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="80" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="82" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="127"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5105,13 +5147,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5140,19 +5182,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78"/>
-      <c r="B67" s="80" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="82" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="127"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5187,13 +5229,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="81"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5222,25 +5264,25 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="80" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="82" t="s">
+      <c r="C69" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="63"/>
+      <c r="E69" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="82"/>
-      <c r="G69" s="127"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J69" s="43">
         <v>5</v>
@@ -5269,13 +5311,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="81"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5304,17 +5346,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78">
+      <c r="A71" s="58">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5340,13 +5382,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="68"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5372,19 +5414,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="80" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="82" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="127"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5419,13 +5461,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5454,19 +5496,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="78"/>
-      <c r="B75" s="80" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="82" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="82"/>
-      <c r="G75" s="127"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5501,13 +5543,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="79"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5536,19 +5578,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="78"/>
-      <c r="B77" s="80" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="82" t="s">
+      <c r="D77" s="63"/>
+      <c r="E77" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="127"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5583,13 +5625,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5618,15 +5660,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="121"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5690,13 +5732,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="87"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="122"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5760,19 +5802,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="78">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="69" t="s">
+      <c r="C81" s="73"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="67"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5798,13 +5840,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="79"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="68"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5830,25 +5872,25 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="78"/>
-      <c r="B83" s="80" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="82" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="127"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I83" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J83" s="43">
         <v>3</v>
@@ -5879,13 +5921,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="79"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5914,25 +5956,25 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="78"/>
-      <c r="B85" s="80" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="82" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="127"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I85" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J85" s="43">
         <v>2</v>
@@ -5963,13 +6005,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="81"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -5998,15 +6040,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="121"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6070,13 +6112,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="122"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6140,17 +6182,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="78">
+      <c r="A89" s="58">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="92"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6176,13 +6218,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="79"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="68"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6208,19 +6250,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="78"/>
-      <c r="B91" s="80" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="82" t="s">
+      <c r="D91" s="63"/>
+      <c r="E91" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="82"/>
-      <c r="G91" s="127"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6257,13 +6299,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="79"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="81"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6292,19 +6334,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78"/>
-      <c r="B93" s="80" t="s">
+      <c r="A93" s="58"/>
+      <c r="B93" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="82" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="82"/>
-      <c r="G93" s="127"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6333,13 +6375,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="79"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="81"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6368,17 +6410,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="78">
+      <c r="A95" s="58">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6404,13 +6446,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="79"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="68"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6436,19 +6478,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="78"/>
-      <c r="B97" s="80" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="82" t="s">
+      <c r="D97" s="63"/>
+      <c r="E97" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="82"/>
-      <c r="G97" s="127"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6483,13 +6525,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="79"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6518,19 +6560,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="78"/>
-      <c r="B99" s="80" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="82" t="s">
+      <c r="D99" s="63"/>
+      <c r="E99" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="82"/>
-      <c r="G99" s="127"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6565,13 +6607,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6600,15 +6642,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="121"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6672,13 +6714,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="122"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="89"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6742,17 +6784,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="78">
+      <c r="A103" s="58">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6778,13 +6820,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="79"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="68"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6810,19 +6852,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="78"/>
-      <c r="B105" s="80" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="82" t="s">
+      <c r="D105" s="63"/>
+      <c r="E105" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="82"/>
-      <c r="G105" s="127"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6857,13 +6899,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="79"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="81"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6892,19 +6934,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78"/>
-      <c r="B107" s="80" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="82" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="82"/>
-      <c r="G107" s="127"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6939,13 +6981,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="79"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6974,17 +7016,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78">
+      <c r="A109" s="58">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7010,13 +7052,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="79"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="68"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7042,19 +7084,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="78"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="82" t="s">
+      <c r="D111" s="63"/>
+      <c r="E111" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="82"/>
-      <c r="G111" s="127"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7089,13 +7131,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="79"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="81"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7124,19 +7166,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78"/>
-      <c r="B113" s="80" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="82" t="s">
+      <c r="D113" s="63"/>
+      <c r="E113" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="82"/>
-      <c r="G113" s="127"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7171,13 +7213,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="79"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="81"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7224,6 +7266,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7248,312 +7593,9 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L9:W22 L45:W54 L81:W86 L25:O40 L55:M60 O55:W60 L63:W78 L103:W114">
+  <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L25:O40 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22">
     <cfRule type="expression" dxfId="11" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -7808,18 +7850,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7841,18 +7883,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA64E3-3446-47AF-8DAE-56733A1B8966}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3491A4-9DB1-4CD5-817C-5792FD8931A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="15" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -423,9 +423,6 @@
     <t>更新</t>
   </si>
   <si>
-    <t>浜崎</t>
-  </si>
-  <si>
     <t>横井、鈴木、今竹、栢沼</t>
   </si>
   <si>
@@ -453,6 +450,14 @@
   </si>
   <si>
     <t>鈴木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今竹</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2172,10 +2177,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2195,7 +2200,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -2476,11 +2481,11 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
-        <v>4.97</v>
+        <v>7.8900000000000006</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
-        <v>4.97</v>
+        <v>7.8900000000000006</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" si="1"/>
@@ -2750,7 +2755,7 @@
         <v>68</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
@@ -2840,7 +2845,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
@@ -2848,7 +2853,7 @@
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" s="8">
         <v>4</v>
@@ -2889,7 +2894,7 @@
         <v>実績</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="54">
         <v>4</v>
@@ -2998,7 +3003,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
@@ -3088,7 +3093,7 @@
         <v>35</v>
       </c>
       <c r="F19" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
@@ -3178,7 +3183,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
@@ -3342,11 +3347,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:O24" si="9">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>2.9200000000000004</v>
       </c>
       <c r="L24" s="30">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.9200000000000004</v>
       </c>
       <c r="M24" s="34">
         <f t="shared" si="9"/>
@@ -3526,13 +3531,19 @@
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="I28" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="54">
+        <v>1</v>
+      </c>
       <c r="K28" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="32">
+        <v>0.1</v>
+      </c>
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
@@ -3570,7 +3581,7 @@
         <v>予定</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" s="8">
         <v>4</v>
@@ -3610,13 +3621,19 @@
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
+      <c r="I30" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="54">
+        <v>4</v>
+      </c>
       <c r="K30" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="32">
+        <v>2</v>
+      </c>
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
@@ -3654,7 +3671,7 @@
         <v>予定</v>
       </c>
       <c r="I31" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -3694,13 +3711,19 @@
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="54"/>
+      <c r="I32" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="54">
+        <v>1</v>
+      </c>
       <c r="K32" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="32"/>
+        <v>0.16</v>
+      </c>
+      <c r="L32" s="32">
+        <v>0.16</v>
+      </c>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
@@ -3738,7 +3761,7 @@
         <v>予定</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -3778,13 +3801,19 @@
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="54"/>
+      <c r="I34" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="54">
+        <v>1</v>
+      </c>
       <c r="K34" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="32"/>
+        <v>0.66</v>
+      </c>
+      <c r="L34" s="32">
+        <v>0.66</v>
+      </c>
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
@@ -5269,7 +5298,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="66" t="s">
@@ -5282,7 +5311,7 @@
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J69" s="43">
         <v>5</v>
@@ -5890,7 +5919,7 @@
         <v>予定</v>
       </c>
       <c r="I83" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J83" s="43">
         <v>3</v>
@@ -5974,7 +6003,7 @@
         <v>予定</v>
       </c>
       <c r="I85" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J85" s="43">
         <v>2</v>
@@ -7666,6 +7695,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7849,22 +7893,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7880,21 +7926,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3491A4-9DB1-4CD5-817C-5792FD8931A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B2511-B8B7-4713-AC6A-2DF669022CA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="15" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="690" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -458,6 +458,13 @@
   </si>
   <si>
     <t>今竹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎</t>
+    <rPh sb="0" eb="2">
+      <t>ハマザキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1401,6 +1408,66 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1413,203 +1480,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,10 +2184,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2199,19 +2206,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2223,132 +2230,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="61">
         <v>43990</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="90">
+      <c r="M1" s="62"/>
+      <c r="N1" s="61">
         <v>43991</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90">
+      <c r="O1" s="62"/>
+      <c r="P1" s="61">
         <v>43992</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="61">
         <v>43993</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="90">
+      <c r="S1" s="62"/>
+      <c r="T1" s="61">
         <v>43994</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="90">
+      <c r="U1" s="62"/>
+      <c r="V1" s="61">
         <v>43997</v>
       </c>
-      <c r="W1" s="91"/>
+      <c r="W1" s="62"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="92" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="92" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="93"/>
+      <c r="W2" s="59"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="94" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94"/>
+      <c r="W3" s="60"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="106"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2391,15 +2398,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2467,13 +2474,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="101"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2481,7 +2488,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
-        <v>7.8900000000000006</v>
+        <v>10.6</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
@@ -2489,7 +2496,7 @@
       </c>
       <c r="M6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="1"/>
@@ -2537,15 +2544,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2611,13 +2618,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="126"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2681,17 +2688,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2714,13 +2721,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2743,21 +2750,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2792,13 +2799,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2833,21 +2840,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2882,13 +2889,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2923,17 +2930,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2959,13 +2966,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2991,21 +2998,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3040,13 +3047,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3081,21 +3088,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3130,13 +3137,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3171,21 +3178,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3220,13 +3227,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3261,15 +3268,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3333,13 +3340,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3347,7 +3354,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:O24" si="9">SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>2.9200000000000004</v>
+        <v>5.13</v>
       </c>
       <c r="L24" s="30">
         <f t="shared" si="9"/>
@@ -3355,7 +3362,7 @@
       </c>
       <c r="M24" s="34">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="N24" s="30">
         <f t="shared" si="9"/>
@@ -3403,17 +3410,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3439,13 +3446,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3471,21 +3478,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="71"/>
+      <c r="F27" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3520,13 +3527,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3561,21 +3568,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="110"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="71"/>
+      <c r="F29" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3610,13 +3617,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3651,21 +3658,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="110"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="71"/>
+      <c r="F31" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3700,13 +3707,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3741,21 +3748,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="71"/>
+      <c r="F33" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3790,13 +3797,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3831,17 +3838,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="110">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3867,13 +3874,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3899,19 +3906,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="110"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="71"/>
+      <c r="F37" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3946,25 +3955,31 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="54"/>
+      <c r="I38" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="54">
+        <v>5</v>
+      </c>
       <c r="K38" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+      <c r="M38" s="31">
+        <v>1.25</v>
+      </c>
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
       <c r="P38" s="42"/>
@@ -3981,19 +3996,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="68"/>
+      <c r="F39" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="127"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4028,25 +4045,31 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="55"/>
+      <c r="I40" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="55">
+        <v>5</v>
+      </c>
       <c r="K40" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
+      <c r="M40" s="42">
+        <v>0.8</v>
+      </c>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
@@ -4063,19 +4086,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="110"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="69"/>
-      <c r="G41" s="71"/>
+      <c r="F41" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4110,25 +4135,31 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+      <c r="I42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" s="54">
+        <v>1</v>
+      </c>
       <c r="K42" s="10">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
+      <c r="M42" s="32">
+        <v>0.16</v>
+      </c>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
       <c r="P42" s="42"/>
@@ -4145,15 +4176,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4217,13 +4248,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +4262,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="57">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="30">
         <f t="shared" ref="L44:O44" si="15">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -4239,7 +4270,7 @@
       </c>
       <c r="M44" s="35">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N44" s="35">
         <f t="shared" si="15"/>
@@ -4287,17 +4318,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="110">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4323,13 +4354,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4355,19 +4386,19 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="68"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="127"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4402,25 +4433,29 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="43"/>
+      <c r="I48" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="J48" s="55"/>
       <c r="K48" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="M48" s="42">
+        <v>0.5</v>
+      </c>
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
@@ -4437,19 +4472,19 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="71"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4486,18 +4521,18 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="43"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="54"/>
       <c r="K50" s="10">
         <f t="shared" si="17"/>
@@ -4521,19 +4556,19 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="78"/>
+      <c r="B51" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="66"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4570,18 +4605,18 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="61"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I52" s="43"/>
+      <c r="I52" s="8"/>
       <c r="J52" s="55"/>
       <c r="K52" s="10">
         <f t="shared" si="17"/>
@@ -4605,17 +4640,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110">
+      <c r="A53" s="72">
         <v>2</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4641,13 +4676,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4673,19 +4708,19 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="71"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4720,13 +4755,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4755,19 +4790,19 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="110"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="69" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="71"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4802,13 +4837,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4837,19 +4872,19 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="69" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="71"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4884,13 +4919,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4919,15 +4954,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -4991,13 +5026,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="89"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5061,17 +5096,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="78">
         <v>1</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5097,13 +5132,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5129,19 +5164,19 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="127"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5176,13 +5211,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5211,19 +5246,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5258,13 +5293,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5293,19 +5328,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="66" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="68"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="127"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5340,13 +5375,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5375,17 +5410,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
+      <c r="A71" s="78">
         <v>2</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5411,13 +5446,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5443,19 +5478,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="127"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5490,13 +5525,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5525,19 +5560,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="78"/>
+      <c r="B75" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5572,13 +5607,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5607,19 +5642,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="66" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="66"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="127"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5654,13 +5689,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="61"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5689,15 +5724,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="88"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="121"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5761,13 +5796,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="122"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5831,19 +5866,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="78">
         <v>1</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="92"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5869,13 +5904,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5901,19 +5936,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5950,13 +5985,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -5985,19 +6020,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="78"/>
+      <c r="B85" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="68"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="127"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6034,13 +6069,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="61"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6069,15 +6104,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="88"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6141,13 +6176,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="89"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="122"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6211,17 +6246,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58">
+      <c r="A89" s="78">
         <v>1</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6247,13 +6282,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6279,19 +6314,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="127"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6328,13 +6363,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="61"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6363,19 +6398,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6404,13 +6439,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6439,17 +6474,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="78">
         <v>2</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6475,13 +6510,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6507,19 +6542,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="78"/>
+      <c r="B97" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="127"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6554,13 +6589,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6589,19 +6624,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="78"/>
+      <c r="B99" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="66" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="68"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="127"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6636,13 +6671,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="61"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6671,15 +6706,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="88"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="121"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6743,13 +6778,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="89"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="122"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6813,17 +6848,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="78">
         <v>1</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6849,13 +6884,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6881,19 +6916,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="78"/>
+      <c r="B105" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="127"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6928,13 +6963,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="61"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6963,19 +6998,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="127"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7010,13 +7045,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7045,17 +7080,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="78">
         <v>2</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7081,13 +7116,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="68"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7113,19 +7148,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="78"/>
+      <c r="B111" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="127"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7160,13 +7195,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="61"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="81"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7195,19 +7230,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="58"/>
-      <c r="B113" s="60" t="s">
+      <c r="A113" s="78"/>
+      <c r="B113" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="66" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="66"/>
-      <c r="G113" s="68"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="127"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7242,13 +7277,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="61"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7295,44 +7330,271 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7357,274 +7619,47 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L25:O40 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22">
+  <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
     <cfRule type="expression" dxfId="11" priority="45" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -7701,15 +7736,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7893,6 +7919,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7903,14 +7938,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7926,4 +7953,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B2511-B8B7-4713-AC6A-2DF669022CA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95E2FB-C203-4D57-BDC7-97161A1FCFD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="690" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="225" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="81">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -1408,6 +1408,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,37 +1519,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,95 +1571,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1564,12 +1600,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1587,36 +1617,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2184,10 +2184,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O48" sqref="O48"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2206,19 +2206,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2230,132 +2230,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61">
+      <c r="L1" s="90">
         <v>43990</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="61">
+      <c r="M1" s="91"/>
+      <c r="N1" s="90">
         <v>43991</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="61">
+      <c r="O1" s="91"/>
+      <c r="P1" s="90">
         <v>43992</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="61">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90">
         <v>43993</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="61">
+      <c r="S1" s="91"/>
+      <c r="T1" s="90">
         <v>43994</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61">
+      <c r="U1" s="91"/>
+      <c r="V1" s="90">
         <v>43997</v>
       </c>
-      <c r="W1" s="62"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="59"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="94"/>
+      <c r="V3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="60"/>
+      <c r="W3" s="94"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2398,15 +2398,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2474,13 +2474,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="126"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2544,15 +2544,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2618,13 +2618,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2688,17 +2688,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2721,13 +2721,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2750,21 +2750,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2799,13 +2799,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2840,21 +2840,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2889,13 +2889,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2930,17 +2930,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="110">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2966,13 +2966,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2998,21 +2998,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3047,13 +3047,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="66"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3088,21 +3088,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="127"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3137,13 +3137,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3178,21 +3178,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3227,13 +3227,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3268,15 +3268,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3340,13 +3340,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3410,17 +3410,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="110">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3446,13 +3446,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3478,21 +3478,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3527,13 +3527,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3568,21 +3568,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="63" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3617,13 +3617,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3658,21 +3658,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3707,13 +3707,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3748,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="63" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3797,13 +3797,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3838,17 +3838,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="110">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="67"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3874,13 +3874,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3906,21 +3906,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="63" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3955,13 +3955,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3996,21 +3996,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="82" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="127"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4045,13 +4045,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="81"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4086,21 +4086,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="63" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="65"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4135,13 +4135,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="66"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4176,15 +4176,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="121"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4248,13 +4248,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="122"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4318,17 +4318,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="110">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4354,13 +4354,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="68"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4386,19 +4386,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="82" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="82"/>
-      <c r="G47" s="127"/>
+      <c r="F47" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="68"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4433,13 +4435,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="81"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4472,19 +4474,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="110"/>
+      <c r="B49" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="63" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="63"/>
-      <c r="G49" s="65"/>
+      <c r="F49" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="71"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4521,13 +4525,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4556,19 +4560,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="80" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="82" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="82"/>
-      <c r="G51" s="127"/>
+      <c r="F51" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="68"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4605,13 +4611,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="81"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4640,17 +4646,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72">
+      <c r="A53" s="110">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4676,13 +4682,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="68"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4708,19 +4714,19 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4755,13 +4761,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4790,19 +4796,19 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="110"/>
+      <c r="B57" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4837,13 +4843,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="66"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4872,19 +4878,19 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="63"/>
-      <c r="G59" s="65"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4919,13 +4925,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="66"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4954,15 +4960,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5026,13 +5032,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="122"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5096,17 +5102,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5132,13 +5138,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="68"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5164,19 +5170,19 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="80" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="82" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="127"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5211,13 +5217,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5246,19 +5252,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78"/>
-      <c r="B67" s="80" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="82" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="127"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5293,13 +5299,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="81"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5328,19 +5334,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="80" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="82" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="82"/>
-      <c r="G69" s="127"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5375,13 +5381,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="81"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5410,17 +5416,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78">
+      <c r="A71" s="58">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5446,13 +5452,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="68"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5478,19 +5484,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="80" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="82" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="127"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5525,13 +5531,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5560,19 +5566,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="78"/>
-      <c r="B75" s="80" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="82" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="82"/>
-      <c r="G75" s="127"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5607,13 +5613,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="79"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5642,19 +5648,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="78"/>
-      <c r="B77" s="80" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="82" t="s">
+      <c r="D77" s="63"/>
+      <c r="E77" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="127"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5689,13 +5695,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5724,15 +5730,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="121"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5796,13 +5802,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="87"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="122"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5866,19 +5872,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="78">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="69" t="s">
+      <c r="C81" s="73"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="67"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5904,13 +5910,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="79"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="68"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5936,19 +5942,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="78"/>
-      <c r="B83" s="80" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="82" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="127"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5985,13 +5991,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="79"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6020,19 +6026,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="78"/>
-      <c r="B85" s="80" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="82" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="127"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6069,13 +6075,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="81"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6104,15 +6110,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="121"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6176,13 +6182,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="122"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6246,17 +6252,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="78">
+      <c r="A89" s="58">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="92"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6282,13 +6288,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="79"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="68"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6314,19 +6320,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="78"/>
-      <c r="B91" s="80" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="82" t="s">
+      <c r="D91" s="63"/>
+      <c r="E91" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="82"/>
-      <c r="G91" s="127"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6363,13 +6369,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="79"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="81"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6398,19 +6404,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78"/>
-      <c r="B93" s="80" t="s">
+      <c r="A93" s="58"/>
+      <c r="B93" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="82" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="82"/>
-      <c r="G93" s="127"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6439,13 +6445,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="79"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="81"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6474,17 +6480,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="78">
+      <c r="A95" s="58">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6510,13 +6516,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="79"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="68"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6542,19 +6548,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="78"/>
-      <c r="B97" s="80" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="82" t="s">
+      <c r="D97" s="63"/>
+      <c r="E97" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="82"/>
-      <c r="G97" s="127"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6589,13 +6595,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="79"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6624,19 +6630,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="78"/>
-      <c r="B99" s="80" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="82" t="s">
+      <c r="D99" s="63"/>
+      <c r="E99" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="82"/>
-      <c r="G99" s="127"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6671,13 +6677,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6706,15 +6712,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="121"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6778,13 +6784,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="122"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="89"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6848,17 +6854,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="78">
+      <c r="A103" s="58">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6884,13 +6890,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="79"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="68"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6916,19 +6922,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="78"/>
-      <c r="B105" s="80" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="82" t="s">
+      <c r="D105" s="63"/>
+      <c r="E105" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="82"/>
-      <c r="G105" s="127"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6963,13 +6969,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="79"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="81"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6998,19 +7004,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78"/>
-      <c r="B107" s="80" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="82" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="82"/>
-      <c r="G107" s="127"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7045,13 +7051,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="79"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7080,17 +7086,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78">
+      <c r="A109" s="58">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7116,13 +7122,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="79"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="68"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7148,19 +7154,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="78"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="82" t="s">
+      <c r="D111" s="63"/>
+      <c r="E111" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="82"/>
-      <c r="G111" s="127"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7195,13 +7201,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="79"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="81"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7230,19 +7236,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78"/>
-      <c r="B113" s="80" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="82" t="s">
+      <c r="D113" s="63"/>
+      <c r="E113" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="82"/>
-      <c r="G113" s="127"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7277,13 +7283,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="79"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="81"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7330,6 +7336,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7354,309 +7663,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7736,6 +7742,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7919,15 +7934,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7938,6 +7944,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7953,12 +7967,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E95E2FB-C203-4D57-BDC7-97161A1FCFD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FD5BF-A1E3-4498-AECA-01CE472872DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="225" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1290" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="80">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -460,13 +460,6 @@
     <t>今竹</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>浜崎</t>
-    <rPh sb="0" eb="2">
-      <t>ハマザキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -1408,6 +1401,66 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1420,203 +1473,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2184,10 +2177,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51:F52"/>
+      <selection pane="bottomRight" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2206,19 +2199,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2230,132 +2223,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="61">
         <v>43990</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="90">
+      <c r="M1" s="62"/>
+      <c r="N1" s="61">
         <v>43991</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90">
+      <c r="O1" s="62"/>
+      <c r="P1" s="61">
         <v>43992</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="61">
         <v>43993</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="90">
+      <c r="S1" s="62"/>
+      <c r="T1" s="61">
         <v>43994</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="90">
+      <c r="U1" s="62"/>
+      <c r="V1" s="61">
         <v>43997</v>
       </c>
-      <c r="W1" s="91"/>
+      <c r="W1" s="62"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="92" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="92" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="93"/>
+      <c r="W2" s="59"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="94" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94"/>
+      <c r="W3" s="60"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="106"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2398,15 +2391,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2474,13 +2467,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="101"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2488,7 +2481,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
-        <v>10.6</v>
+        <v>22.259999999999998</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
@@ -2496,7 +2489,7 @@
       </c>
       <c r="M6" s="28">
         <f t="shared" si="1"/>
-        <v>2.71</v>
+        <v>14.370000000000001</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="1"/>
@@ -2544,15 +2537,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2618,13 +2611,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="126"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2688,17 +2681,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2721,13 +2714,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2750,21 +2743,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2799,13 +2792,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2840,21 +2833,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2889,13 +2882,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2930,17 +2923,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2966,13 +2959,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2998,21 +2991,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3047,13 +3040,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3088,21 +3081,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3137,13 +3130,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3178,21 +3171,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3227,13 +3220,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3268,15 +3261,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3340,13 +3333,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3410,17 +3403,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3446,13 +3439,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3478,21 +3471,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="71"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3527,13 +3520,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3568,21 +3561,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="110"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="71"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3617,13 +3610,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3658,21 +3651,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="110"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="71"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3707,13 +3700,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3741,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="71"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3797,13 +3790,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3838,17 +3831,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="110">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3874,13 +3867,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3906,21 +3899,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="110"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="71"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3955,13 +3948,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3996,21 +3989,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="127"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4045,13 +4038,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4086,21 +4079,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="110"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="71"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4135,13 +4128,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4176,15 +4169,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4248,13 +4241,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4262,7 +4255,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="57">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>0.5</v>
+        <v>12.16</v>
       </c>
       <c r="L44" s="30">
         <f t="shared" ref="L44:O44" si="15">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -4270,7 +4263,7 @@
       </c>
       <c r="M44" s="35">
         <f t="shared" si="15"/>
-        <v>0.5</v>
+        <v>12.16</v>
       </c>
       <c r="N44" s="35">
         <f t="shared" si="15"/>
@@ -4318,17 +4311,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="110">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4354,13 +4347,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4386,27 +4379,27 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="127"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J47" s="43">
         <v>5</v>
@@ -4435,28 +4428,30 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="55"/>
+        <v>78</v>
+      </c>
+      <c r="J48" s="55">
+        <v>1</v>
+      </c>
       <c r="K48" s="10">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="L48" s="42"/>
       <c r="M48" s="42">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
@@ -4474,27 +4469,27 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="71"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J49" s="8">
         <v>5</v>
@@ -4525,25 +4520,31 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I50" s="8"/>
-      <c r="J50" s="54"/>
+      <c r="I50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="54">
+        <v>5</v>
+      </c>
       <c r="K50" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
+      <c r="M50" s="32">
+        <v>7</v>
+      </c>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
       <c r="P50" s="42"/>
@@ -4560,21 +4561,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="78"/>
+      <c r="B51" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="68"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4611,25 +4612,31 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="61"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="55"/>
+      <c r="I52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="55">
+        <v>5</v>
+      </c>
       <c r="K52" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
+      <c r="M52" s="42">
+        <v>5</v>
+      </c>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
@@ -4646,17 +4653,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110">
+      <c r="A53" s="72">
         <v>2</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4682,13 +4689,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4714,19 +4721,19 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="71"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4761,13 +4768,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4796,19 +4803,19 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="110"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="69" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="71"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4843,13 +4850,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4878,19 +4885,19 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="69" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="71"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4925,13 +4932,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4960,15 +4967,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5032,13 +5039,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="89"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5102,17 +5109,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="78">
         <v>1</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5138,13 +5145,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5170,19 +5177,19 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="68"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="127"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5217,13 +5224,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5252,19 +5259,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5299,13 +5306,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5334,19 +5341,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="66" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="68"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="127"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5381,13 +5388,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5416,17 +5423,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
+      <c r="A71" s="78">
         <v>2</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5452,13 +5459,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5484,19 +5491,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="127"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5531,13 +5538,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5566,19 +5573,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="78"/>
+      <c r="B75" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5613,13 +5620,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5648,19 +5655,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="66" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="66"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="127"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5695,13 +5702,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="61"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5730,15 +5737,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="88"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="121"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5802,13 +5809,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="122"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5872,19 +5879,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="78">
         <v>1</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="92"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5910,13 +5917,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5942,19 +5949,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5991,13 +5998,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6026,19 +6033,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="78"/>
+      <c r="B85" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="68"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="127"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6075,13 +6082,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="61"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6110,15 +6117,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="88"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6182,13 +6189,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="89"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="122"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6252,17 +6259,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58">
+      <c r="A89" s="78">
         <v>1</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6288,13 +6295,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6320,19 +6327,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="127"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6369,13 +6376,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="61"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6404,24 +6411,26 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
-      <c r="I93" s="43"/>
+      <c r="I93" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="J93" s="43"/>
       <c r="K93" s="9">
         <f>SUM(L93:O93)</f>
@@ -6445,13 +6454,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6480,17 +6489,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="78">
         <v>2</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6516,13 +6525,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6548,19 +6557,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="78"/>
+      <c r="B97" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="127"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6595,13 +6604,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6630,19 +6639,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="78"/>
+      <c r="B99" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="66" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="68"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="127"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6677,13 +6686,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="61"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6712,15 +6721,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="88"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="121"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6784,13 +6793,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="89"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="122"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6854,17 +6863,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="78">
         <v>1</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6890,13 +6899,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6922,19 +6931,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="78"/>
+      <c r="B105" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="127"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6969,13 +6978,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="61"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -7004,19 +7013,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="127"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7051,13 +7060,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7086,17 +7095,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="78">
         <v>2</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7122,13 +7131,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="68"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7154,19 +7163,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="78"/>
+      <c r="B111" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="127"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7201,13 +7210,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="61"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="81"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7236,19 +7245,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="58"/>
-      <c r="B113" s="60" t="s">
+      <c r="A113" s="78"/>
+      <c r="B113" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="66" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="66"/>
-      <c r="G113" s="68"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="127"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7283,13 +7292,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="61"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7336,44 +7345,271 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7398,271 +7634,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7742,15 +7751,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7934,6 +7934,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7944,14 +7953,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7967,4 +7968,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2FD5BF-A1E3-4498-AECA-01CE472872DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B3D51-B399-4A65-8837-D287FD9BEBF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1290" windowWidth="20310" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="420" windowWidth="18675" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -460,6 +460,10 @@
     <t>今竹</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>栢沼</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1401,6 +1405,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,37 +1516,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,95 +1568,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1557,12 +1597,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1580,36 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,10 +2181,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2199,19 +2203,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2223,132 +2227,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61">
+      <c r="L1" s="90">
         <v>43990</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="61">
+      <c r="M1" s="91"/>
+      <c r="N1" s="90">
         <v>43991</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="61">
+      <c r="O1" s="91"/>
+      <c r="P1" s="90">
         <v>43992</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="61">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90">
         <v>43993</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="61">
+      <c r="S1" s="91"/>
+      <c r="T1" s="90">
         <v>43994</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61">
+      <c r="U1" s="91"/>
+      <c r="V1" s="90">
         <v>43997</v>
       </c>
-      <c r="W1" s="62"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="59"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="94"/>
+      <c r="V3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="60"/>
+      <c r="W3" s="94"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2391,15 +2395,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2467,13 +2471,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="126"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
-        <v>22.259999999999998</v>
+        <v>34.47</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
@@ -2493,7 +2497,7 @@
       </c>
       <c r="N6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.21</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="1"/>
@@ -2537,15 +2541,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2611,13 +2615,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2681,17 +2685,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2714,13 +2718,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2743,21 +2747,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2792,13 +2796,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2833,21 +2837,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2882,13 +2886,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2923,17 +2927,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="110">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2959,13 +2963,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2991,21 +2995,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3040,13 +3044,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="66"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3081,21 +3085,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="127"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3130,13 +3134,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3171,21 +3175,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3220,13 +3224,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3261,15 +3265,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3333,13 +3337,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3403,17 +3407,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="110">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3439,13 +3443,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3471,21 +3475,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3520,13 +3524,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3561,21 +3565,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="63" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3610,13 +3614,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3651,21 +3655,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3700,13 +3704,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3741,21 +3745,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="63" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3790,13 +3794,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3831,17 +3835,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="110">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="67"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3867,13 +3871,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3899,21 +3903,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="63" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3948,13 +3952,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3989,21 +3993,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="82" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="127"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4038,13 +4042,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="81"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4079,21 +4083,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="63" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="65"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4128,13 +4132,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="66"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4169,15 +4173,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="121"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4241,13 +4245,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="122"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4255,7 +4259,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="57">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>12.16</v>
+        <v>24.37</v>
       </c>
       <c r="L44" s="30">
         <f t="shared" ref="L44:O44" si="15">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -4267,7 +4271,7 @@
       </c>
       <c r="N44" s="35">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>12.21</v>
       </c>
       <c r="O44" s="35">
         <f t="shared" si="15"/>
@@ -4311,17 +4315,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="110">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4347,13 +4351,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="68"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4379,21 +4383,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="82" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="127"/>
+      <c r="F47" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="68"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4428,13 +4432,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="81"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4469,21 +4473,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="110"/>
+      <c r="B49" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="63" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="65"/>
+      <c r="F49" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="71"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4520,13 +4524,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4539,13 +4543,15 @@
       </c>
       <c r="K50" s="10">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L50" s="32"/>
       <c r="M50" s="32">
         <v>7</v>
       </c>
-      <c r="N50" s="32"/>
+      <c r="N50" s="32">
+        <v>5</v>
+      </c>
       <c r="O50" s="32"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="42"/>
@@ -4561,21 +4567,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="80" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="82" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="127"/>
+      <c r="F51" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="68"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4612,13 +4618,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="81"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4631,13 +4637,15 @@
       </c>
       <c r="K52" s="10">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L52" s="42"/>
       <c r="M52" s="42">
         <v>5</v>
       </c>
-      <c r="N52" s="42"/>
+      <c r="N52" s="42">
+        <v>5</v>
+      </c>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
       <c r="Q52" s="42"/>
@@ -4653,17 +4661,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72">
+      <c r="A53" s="110">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4689,13 +4697,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="68"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4721,25 +4729,27 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65"/>
+      <c r="F55" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="71"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J55" s="8">
         <v>5</v>
@@ -4768,26 +4778,32 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="8"/>
-      <c r="J56" s="54"/>
+      <c r="I56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="54">
+        <v>5</v>
+      </c>
       <c r="K56" s="10">
         <f>SUM(L56:O56)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
-      <c r="N56" s="42"/>
+      <c r="N56" s="42">
+        <v>1.25</v>
+      </c>
       <c r="O56" s="32"/>
       <c r="P56" s="42"/>
       <c r="Q56" s="42"/>
@@ -4803,19 +4819,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="110"/>
+      <c r="B57" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65"/>
+      <c r="F57" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="71"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4850,26 +4868,32 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="66"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I58" s="8"/>
-      <c r="J58" s="54"/>
+      <c r="I58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J58" s="54">
+        <v>5</v>
+      </c>
       <c r="K58" s="10">
         <f>SUM(L58:O58)</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
-      <c r="N58" s="42"/>
+      <c r="N58" s="42">
+        <v>0.8</v>
+      </c>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
       <c r="Q58" s="42"/>
@@ -4885,25 +4909,27 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="63"/>
-      <c r="G59" s="65"/>
+      <c r="F59" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="71"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J59" s="8">
         <v>1</v>
@@ -4932,26 +4958,32 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="66"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="54"/>
+      <c r="I60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" s="54">
+        <v>1</v>
+      </c>
       <c r="K60" s="10">
         <f t="shared" ref="K60" si="18">SUM(L60:O60)</f>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
+      <c r="N60" s="37">
+        <v>0.16</v>
+      </c>
       <c r="O60" s="37"/>
       <c r="P60" s="44"/>
       <c r="Q60" s="44"/>
@@ -4967,15 +4999,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5039,13 +5071,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="122"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5109,17 +5141,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5145,13 +5177,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="68"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5177,19 +5209,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="80" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="82" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="82"/>
-      <c r="G65" s="127"/>
+      <c r="F65" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="68"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5224,13 +5258,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5259,19 +5293,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78"/>
-      <c r="B67" s="80" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="82" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="127"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5306,13 +5340,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="81"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5341,19 +5375,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="80" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="82" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="82"/>
-      <c r="G69" s="127"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5388,13 +5422,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="81"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5423,17 +5457,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78">
+      <c r="A71" s="58">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5459,13 +5493,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="68"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5491,19 +5525,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="80" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="82" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="127"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5538,13 +5572,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5573,19 +5607,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="78"/>
-      <c r="B75" s="80" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="82" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="82"/>
-      <c r="G75" s="127"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5620,13 +5654,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="79"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5655,19 +5689,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="78"/>
-      <c r="B77" s="80" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="82" t="s">
+      <c r="D77" s="63"/>
+      <c r="E77" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="127"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5702,13 +5736,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5737,15 +5771,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="121"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5809,13 +5843,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="87"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="122"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5879,19 +5913,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="78">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="69" t="s">
+      <c r="C81" s="73"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="67"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5917,13 +5951,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="79"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="68"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5949,19 +5983,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="78"/>
-      <c r="B83" s="80" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="82" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="127"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -5998,13 +6032,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="79"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6033,19 +6067,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="78"/>
-      <c r="B85" s="80" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="82" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="127"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6082,13 +6116,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="81"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6117,15 +6151,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="121"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6189,13 +6223,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="122"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6259,17 +6293,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="78">
+      <c r="A89" s="58">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="92"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6295,13 +6329,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="79"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="68"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6327,19 +6361,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="78"/>
-      <c r="B91" s="80" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="82" t="s">
+      <c r="D91" s="63"/>
+      <c r="E91" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="82"/>
-      <c r="G91" s="127"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6376,13 +6410,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="79"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="81"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6411,19 +6445,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78"/>
-      <c r="B93" s="80" t="s">
+      <c r="A93" s="58"/>
+      <c r="B93" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="82" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="82"/>
-      <c r="G93" s="127"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6454,13 +6488,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="79"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="81"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6489,17 +6523,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="78">
+      <c r="A95" s="58">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6525,13 +6559,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="79"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="68"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6557,19 +6591,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="78"/>
-      <c r="B97" s="80" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="82" t="s">
+      <c r="D97" s="63"/>
+      <c r="E97" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="82"/>
-      <c r="G97" s="127"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6604,13 +6638,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="79"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6639,19 +6673,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="78"/>
-      <c r="B99" s="80" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="82" t="s">
+      <c r="D99" s="63"/>
+      <c r="E99" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="82"/>
-      <c r="G99" s="127"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6686,13 +6720,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6721,15 +6755,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="121"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6793,13 +6827,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="122"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="89"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6863,17 +6897,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="78">
+      <c r="A103" s="58">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6899,13 +6933,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="79"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="68"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6931,19 +6965,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="78"/>
-      <c r="B105" s="80" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="82" t="s">
+      <c r="D105" s="63"/>
+      <c r="E105" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="82"/>
-      <c r="G105" s="127"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6978,13 +7012,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="79"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="81"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -7013,19 +7047,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78"/>
-      <c r="B107" s="80" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="82" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="82"/>
-      <c r="G107" s="127"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7060,13 +7094,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="79"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7095,17 +7129,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78">
+      <c r="A109" s="58">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7131,13 +7165,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="79"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="68"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7163,19 +7197,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="78"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="82" t="s">
+      <c r="D111" s="63"/>
+      <c r="E111" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="82"/>
-      <c r="G111" s="127"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7210,13 +7244,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="79"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="81"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7245,19 +7279,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78"/>
-      <c r="B113" s="80" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="82" t="s">
+      <c r="D113" s="63"/>
+      <c r="E113" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="82"/>
-      <c r="G113" s="127"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7292,13 +7326,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="79"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="81"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7345,6 +7379,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7369,309 +7706,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7751,6 +7785,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7934,15 +7977,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7953,6 +7987,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7968,12 +8010,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3B3D51-B399-4A65-8837-D287FD9BEBF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE7DFFD-91A9-405A-A634-B8A7C6E55343}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="420" windowWidth="18675" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,6 +1405,66 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1417,203 +1477,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2181,10 +2181,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67:F68"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2203,19 +2203,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2227,132 +2227,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="61">
         <v>43990</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="90">
+      <c r="M1" s="62"/>
+      <c r="N1" s="61">
         <v>43991</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90">
+      <c r="O1" s="62"/>
+      <c r="P1" s="61">
         <v>43992</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="61">
         <v>43993</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="90">
+      <c r="S1" s="62"/>
+      <c r="T1" s="61">
         <v>43994</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="90">
+      <c r="U1" s="62"/>
+      <c r="V1" s="61">
         <v>43997</v>
       </c>
-      <c r="W1" s="91"/>
+      <c r="W1" s="62"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="92" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="92" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="93"/>
+      <c r="W2" s="59"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="94" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94"/>
+      <c r="W3" s="60"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="106"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2395,15 +2395,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2471,13 +2471,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="101"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2485,11 +2485,11 @@
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
-        <v>34.47</v>
+        <v>35.370000000000005</v>
       </c>
       <c r="L6" s="28">
         <f t="shared" ref="L6:W6" si="1">SUM(L8,L24,L44,L62,L80,L88,L102)</f>
-        <v>7.8900000000000006</v>
+        <v>8.34</v>
       </c>
       <c r="M6" s="28">
         <f t="shared" si="1"/>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="N6" s="28">
         <f t="shared" si="1"/>
-        <v>12.21</v>
+        <v>12.66</v>
       </c>
       <c r="O6" s="28">
         <f t="shared" si="1"/>
@@ -2541,15 +2541,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2615,13 +2615,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="126"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2629,11 +2629,11 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="4">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>4.97</v>
+        <v>5.42</v>
       </c>
       <c r="L8" s="30">
         <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>4.97</v>
+        <v>5.42</v>
       </c>
       <c r="M8" s="30">
         <f t="shared" si="4"/>
@@ -2685,17 +2685,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2718,13 +2718,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2747,21 +2747,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2796,13 +2796,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2837,21 +2837,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2886,13 +2886,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2927,17 +2927,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2963,13 +2963,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2995,21 +2995,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3044,13 +3044,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3085,21 +3085,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3134,13 +3134,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3153,10 +3153,10 @@
       </c>
       <c r="K20" s="10">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="L20" s="41">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
@@ -3175,21 +3175,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3224,13 +3224,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3265,15 +3265,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3337,13 +3337,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3407,17 +3407,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3443,13 +3443,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3475,21 +3475,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="71"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3524,13 +3524,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3565,21 +3565,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="110"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="71"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3614,13 +3614,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3655,21 +3655,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="110"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="71"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3704,13 +3704,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3745,21 +3745,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="71"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3794,13 +3794,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3835,17 +3835,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="110">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3871,13 +3871,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3903,21 +3903,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="110"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="71"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3952,13 +3952,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3993,21 +3993,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="127"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4042,13 +4042,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4083,21 +4083,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="110"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="71"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4132,13 +4132,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4173,15 +4173,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4245,13 +4245,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4259,7 +4259,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="57">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
-        <v>24.37</v>
+        <v>24.82</v>
       </c>
       <c r="L44" s="30">
         <f t="shared" ref="L44:O44" si="15">SUMPRODUCT((MOD(ROW(L$45:L$60),2)=0)*L$45:L$60)</f>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="N44" s="35">
         <f t="shared" si="15"/>
-        <v>12.21</v>
+        <v>12.66</v>
       </c>
       <c r="O44" s="35">
         <f t="shared" si="15"/>
@@ -4315,17 +4315,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="110">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4351,13 +4351,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4383,21 +4383,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="127"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4432,13 +4432,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4473,21 +4473,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="71"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4524,13 +4524,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4567,21 +4567,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="78"/>
+      <c r="B51" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="68"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4618,13 +4618,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="61"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4661,17 +4661,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110">
+      <c r="A53" s="72">
         <v>2</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4697,13 +4697,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4729,21 +4729,21 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4778,13 +4778,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4819,21 +4819,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="110"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="69" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="71"/>
+      <c r="F57" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4868,13 +4868,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4887,12 +4887,12 @@
       </c>
       <c r="K58" s="10">
         <f>SUM(L58:O58)</f>
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
       <c r="N58" s="42">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
@@ -4909,21 +4909,21 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="69" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="71"/>
+      <c r="F59" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="65"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4958,13 +4958,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4999,15 +4999,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5071,13 +5071,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="89"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5141,17 +5141,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="78">
         <v>1</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5177,13 +5177,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5209,21 +5209,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="68"/>
+      <c r="G65" s="127"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5258,13 +5258,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5293,19 +5293,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5340,13 +5340,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5375,19 +5375,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="66" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="68"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="127"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5422,13 +5422,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5457,17 +5457,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
+      <c r="A71" s="78">
         <v>2</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5493,13 +5493,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5525,19 +5525,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="127"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5572,13 +5572,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5607,19 +5607,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="78"/>
+      <c r="B75" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5654,13 +5654,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5689,19 +5689,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="66" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="66"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="127"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5736,13 +5736,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="61"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5771,15 +5771,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="88"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="121"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5843,13 +5843,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="122"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5913,19 +5913,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="78">
         <v>1</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="92"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5951,13 +5951,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5983,19 +5983,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -6032,13 +6032,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6067,19 +6067,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="78"/>
+      <c r="B85" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="68"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="127"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6116,13 +6116,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="61"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6151,15 +6151,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="88"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6223,13 +6223,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="89"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="122"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6293,17 +6293,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58">
+      <c r="A89" s="78">
         <v>1</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6329,13 +6329,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6361,19 +6361,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="127"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6410,13 +6410,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="61"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6445,19 +6445,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6488,13 +6488,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6523,17 +6523,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="78">
         <v>2</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6559,13 +6559,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6591,19 +6591,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="78"/>
+      <c r="B97" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="127"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6638,13 +6638,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6673,19 +6673,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="78"/>
+      <c r="B99" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="66" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="68"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="127"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6720,13 +6720,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="61"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6755,15 +6755,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="88"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="121"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6827,13 +6827,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="89"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="122"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6897,17 +6897,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="78">
         <v>1</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6933,13 +6933,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6965,19 +6965,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="78"/>
+      <c r="B105" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="127"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -7012,13 +7012,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="61"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -7047,19 +7047,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="127"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7094,13 +7094,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7129,17 +7129,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="78">
         <v>2</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7165,13 +7165,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="68"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7197,19 +7197,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="78"/>
+      <c r="B111" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="127"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7244,13 +7244,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="61"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="81"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7279,19 +7279,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="58"/>
-      <c r="B113" s="60" t="s">
+      <c r="A113" s="78"/>
+      <c r="B113" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="66" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="66"/>
-      <c r="G113" s="68"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="127"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7326,13 +7326,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="61"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7379,44 +7379,271 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7441,271 +7668,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7785,15 +7785,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7977,6 +7968,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7987,14 +7987,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8010,4 +8002,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE7DFFD-91A9-405A-A634-B8A7C6E55343}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0E46C-F47F-4ADE-8BFA-ABD53CEA69B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="420" windowWidth="18675" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -1405,6 +1405,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,37 +1516,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,95 +1568,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1561,12 +1597,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1584,36 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2181,10 +2181,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65:F66"/>
+      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2203,19 +2203,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2227,132 +2227,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61">
+      <c r="L1" s="90">
         <v>43990</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="61">
+      <c r="M1" s="91"/>
+      <c r="N1" s="90">
         <v>43991</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="61">
+      <c r="O1" s="91"/>
+      <c r="P1" s="90">
         <v>43992</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="61">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90">
         <v>43993</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="61">
+      <c r="S1" s="91"/>
+      <c r="T1" s="90">
         <v>43994</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61">
+      <c r="U1" s="91"/>
+      <c r="V1" s="90">
         <v>43997</v>
       </c>
-      <c r="W1" s="62"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="59"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="94"/>
+      <c r="V3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="60"/>
+      <c r="W3" s="94"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2395,15 +2395,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2471,13 +2471,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="126"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="O6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P6" s="28">
         <f t="shared" si="1"/>
@@ -2541,15 +2541,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2615,13 +2615,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2685,17 +2685,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2718,13 +2718,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2747,21 +2747,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2796,13 +2796,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2837,21 +2837,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2886,13 +2886,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2927,17 +2927,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="110">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2963,13 +2963,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2995,21 +2995,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3044,13 +3044,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="66"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3085,21 +3085,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="127"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3134,13 +3134,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3175,21 +3175,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3224,13 +3224,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3265,15 +3265,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3337,13 +3337,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3407,17 +3407,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="110">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3443,13 +3443,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3475,21 +3475,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3524,13 +3524,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3565,21 +3565,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="63" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3614,13 +3614,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3655,21 +3655,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3704,13 +3704,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3745,21 +3745,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="63" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3794,13 +3794,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3835,17 +3835,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="110">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="67"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3871,13 +3871,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3903,21 +3903,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="63" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3952,13 +3952,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3993,21 +3993,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="82" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="127"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4042,13 +4042,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="81"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4083,21 +4083,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="63" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="65"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4132,13 +4132,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="66"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4173,15 +4173,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="121"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4245,13 +4245,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="122"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4315,17 +4315,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="110">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4351,13 +4351,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="68"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4383,21 +4383,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="82" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="82" t="s">
+      <c r="F47" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="127"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4432,13 +4432,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="81"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4473,21 +4473,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="110"/>
+      <c r="B49" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="63" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="65"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4524,13 +4524,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4567,21 +4567,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="80" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="82" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="82" t="s">
+      <c r="F51" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="127"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4618,13 +4618,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="81"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4661,17 +4661,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72">
+      <c r="A53" s="110">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4697,13 +4697,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="68"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4729,21 +4729,21 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="65"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4778,13 +4778,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4819,21 +4819,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="110"/>
+      <c r="B57" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="F57" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="65"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4868,13 +4868,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="66"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4909,21 +4909,21 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="63" t="s">
+      <c r="F59" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="65"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4958,13 +4958,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="66"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4999,15 +4999,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5071,13 +5071,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="122"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="53" cm="1">
         <f t="array" ref="K62">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L62" s="21" cm="1">
         <f t="array" ref="L62">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=0)*L$63:L$78)</f>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="O62" s="21" cm="1">
         <f t="array" ref="O62">SUMPRODUCT((MOD(ROW(O$63:O$78),2)=0)*O$63:O$78)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P62" s="21" cm="1">
         <f t="array" ref="P62">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=0)*P$63:P$78)</f>
@@ -5141,17 +5141,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5177,13 +5177,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="68"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5209,21 +5209,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="80" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="82" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="82" t="s">
+      <c r="F65" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="127"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5258,27 +5258,33 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="43"/>
-      <c r="J66" s="55"/>
+      <c r="I66" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J66" s="55">
+        <v>5</v>
+      </c>
       <c r="K66" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L66" s="42"/>
       <c r="M66" s="42"/>
       <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
+      <c r="O66" s="42">
+        <v>15</v>
+      </c>
       <c r="P66" s="42"/>
       <c r="Q66" s="42"/>
       <c r="R66" s="42"/>
@@ -5293,19 +5299,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78"/>
-      <c r="B67" s="80" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="82" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="127"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5340,13 +5346,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="81"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5375,19 +5381,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="80" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="82" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="82"/>
-      <c r="G69" s="127"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="68"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5422,13 +5428,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="81"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5457,17 +5463,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78">
+      <c r="A71" s="58">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5493,13 +5499,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="68"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5525,19 +5531,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="80" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="82" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="127"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5572,13 +5578,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5607,19 +5613,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="78"/>
-      <c r="B75" s="80" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="82" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="82"/>
-      <c r="G75" s="127"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5654,13 +5660,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="79"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5689,19 +5695,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="78"/>
-      <c r="B77" s="80" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="82" t="s">
+      <c r="D77" s="63"/>
+      <c r="E77" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="127"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5736,13 +5742,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5771,15 +5777,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="121"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5843,13 +5849,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="87"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="122"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5913,19 +5919,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="78">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="69" t="s">
+      <c r="C81" s="73"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="67"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5951,13 +5957,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="79"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="68"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5983,19 +5989,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="78"/>
-      <c r="B83" s="80" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="82" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="127"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -6032,13 +6038,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="79"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6067,19 +6073,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="78"/>
-      <c r="B85" s="80" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="82" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="127"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="68"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6116,13 +6122,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="81"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6151,15 +6157,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="121"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6223,13 +6229,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="122"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6293,17 +6299,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="78">
+      <c r="A89" s="58">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="92"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6329,13 +6335,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="79"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="68"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6361,19 +6367,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="78"/>
-      <c r="B91" s="80" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="82" t="s">
+      <c r="D91" s="63"/>
+      <c r="E91" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="82"/>
-      <c r="G91" s="127"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6410,13 +6416,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="79"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="81"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6445,19 +6451,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78"/>
-      <c r="B93" s="80" t="s">
+      <c r="A93" s="58"/>
+      <c r="B93" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="82" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="82"/>
-      <c r="G93" s="127"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6488,13 +6494,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="79"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="81"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6523,17 +6529,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="78">
+      <c r="A95" s="58">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6559,13 +6565,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="79"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="68"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6591,19 +6597,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="78"/>
-      <c r="B97" s="80" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="82" t="s">
+      <c r="D97" s="63"/>
+      <c r="E97" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="82"/>
-      <c r="G97" s="127"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6638,13 +6644,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="79"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6673,19 +6679,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="78"/>
-      <c r="B99" s="80" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="82" t="s">
+      <c r="D99" s="63"/>
+      <c r="E99" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="82"/>
-      <c r="G99" s="127"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6720,13 +6726,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6755,15 +6761,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="121"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6827,13 +6833,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="122"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="89"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6897,17 +6903,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="78">
+      <c r="A103" s="58">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6933,13 +6939,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="79"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="68"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6965,19 +6971,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="78"/>
-      <c r="B105" s="80" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="82" t="s">
+      <c r="D105" s="63"/>
+      <c r="E105" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="82"/>
-      <c r="G105" s="127"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -7012,13 +7018,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="79"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="81"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -7047,19 +7053,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78"/>
-      <c r="B107" s="80" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="82" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="82"/>
-      <c r="G107" s="127"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7094,13 +7100,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="79"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7129,17 +7135,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78">
+      <c r="A109" s="58">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7165,13 +7171,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="79"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="68"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7197,19 +7203,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="78"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="82" t="s">
+      <c r="D111" s="63"/>
+      <c r="E111" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="82"/>
-      <c r="G111" s="127"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7244,13 +7250,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="79"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="81"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7279,19 +7285,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78"/>
-      <c r="B113" s="80" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="82" t="s">
+      <c r="D113" s="63"/>
+      <c r="E113" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="82"/>
-      <c r="G113" s="127"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7326,13 +7332,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="79"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="81"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7379,6 +7385,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7403,309 +7712,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7785,6 +7791,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7968,15 +7983,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7987,6 +7993,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8002,12 +8016,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0E46C-F47F-4ADE-8BFA-ABD53CEA69B0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556558C-5983-437D-AA93-E5BBBCA27533}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="420" windowWidth="18675" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="83">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -462,6 +462,26 @@
   </si>
   <si>
     <t>栢沼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、今竹、浜崎</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イマタケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハマザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1405,6 +1425,66 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1417,203 +1497,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2181,10 +2201,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O67" sqref="O67"/>
+      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2203,19 +2223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="99" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2227,132 +2247,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="61">
         <v>43990</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="90">
+      <c r="M1" s="62"/>
+      <c r="N1" s="61">
         <v>43991</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90">
+      <c r="O1" s="62"/>
+      <c r="P1" s="61">
         <v>43992</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="61">
         <v>43993</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="90">
+      <c r="S1" s="62"/>
+      <c r="T1" s="61">
         <v>43994</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="90">
+      <c r="U1" s="62"/>
+      <c r="V1" s="61">
         <v>43997</v>
       </c>
-      <c r="W1" s="91"/>
+      <c r="W1" s="62"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="92" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="59"/>
+      <c r="P2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="59"/>
+      <c r="T2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="92" t="s">
+      <c r="U2" s="59"/>
+      <c r="V2" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="93"/>
+      <c r="W2" s="59"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="94" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94" t="s">
+      <c r="S3" s="60"/>
+      <c r="T3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="U3" s="60"/>
+      <c r="V3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94"/>
+      <c r="W3" s="60"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="106"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="120"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2395,15 +2415,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2471,13 +2491,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="101"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="126"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2505,11 +2525,11 @@
       </c>
       <c r="P6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.21</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" si="1"/>
@@ -2541,15 +2561,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2615,13 +2635,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="126"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="116"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2685,17 +2705,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="72">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2718,13 +2738,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2747,21 +2767,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="75"/>
+      <c r="E11" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2796,13 +2816,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2837,21 +2857,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="75"/>
+      <c r="E13" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2886,13 +2906,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2927,17 +2947,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="72">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2963,13 +2983,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2995,21 +3015,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3044,13 +3064,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3085,21 +3105,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="75"/>
+      <c r="E19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3134,13 +3154,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3175,21 +3195,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="75"/>
+      <c r="E21" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3224,13 +3244,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3265,15 +3285,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3337,13 +3357,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3407,17 +3427,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110">
+      <c r="A25" s="72">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3443,13 +3463,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3475,21 +3495,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="71"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3524,13 +3544,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3565,21 +3585,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="110"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="72"/>
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="75"/>
+      <c r="E29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="71"/>
+      <c r="G29" s="65"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3614,13 +3634,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3655,21 +3675,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="110"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="72"/>
+      <c r="B31" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="75"/>
+      <c r="E31" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="71"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3704,13 +3724,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="72"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3745,21 +3765,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="75"/>
+      <c r="E33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="71"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3794,13 +3814,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="72"/>
+      <c r="A34" s="73"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3835,17 +3855,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="110">
+      <c r="A35" s="72">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3871,13 +3891,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3903,21 +3923,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="110"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="75"/>
+      <c r="E37" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="71"/>
+      <c r="G37" s="65"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3952,13 +3972,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3993,21 +4013,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="75"/>
+      <c r="E39" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="127"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4042,13 +4062,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4083,21 +4103,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="110"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
+      <c r="D41" s="75"/>
+      <c r="E41" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="71"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4132,13 +4152,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4173,15 +4193,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="121"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4245,13 +4265,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="122"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4315,17 +4335,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="110">
+      <c r="A45" s="72">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4351,13 +4371,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="73"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="68"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4383,21 +4403,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="78"/>
+      <c r="B47" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="75"/>
+      <c r="E47" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="127"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4432,13 +4452,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4473,21 +4493,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="75"/>
+      <c r="E49" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="71"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4524,13 +4544,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="72"/>
+      <c r="A50" s="73"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4567,21 +4587,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="78"/>
+      <c r="B51" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="68"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4618,13 +4638,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="61"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4661,17 +4681,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110">
+      <c r="A53" s="72">
         <v>2</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="67"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4697,13 +4717,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4729,21 +4749,21 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="72"/>
+      <c r="B55" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="75"/>
+      <c r="E55" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="65"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4778,13 +4798,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="72"/>
+      <c r="A56" s="73"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4819,21 +4839,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="110"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="72"/>
+      <c r="B57" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="69" t="s">
+      <c r="D57" s="75"/>
+      <c r="E57" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="71"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4868,13 +4888,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="72"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4909,21 +4929,21 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="69" t="s">
+      <c r="D59" s="75"/>
+      <c r="E59" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="71"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4958,13 +4978,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="72"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4999,15 +5019,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5071,13 +5091,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="89"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5105,11 +5125,11 @@
       </c>
       <c r="P62" s="21" cm="1">
         <f t="array" ref="P62">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=0)*P$63:P$78)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q62" s="21" cm="1">
         <f t="array" ref="Q62">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=0)*Q$63:Q$78)</f>
-        <v>0</v>
+        <v>15.21</v>
       </c>
       <c r="R62" s="21" cm="1">
         <f t="array" ref="R62">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=0)*R$63:R$78)</f>
@@ -5141,17 +5161,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="78">
         <v>1</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="67"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5177,13 +5197,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="68"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5209,21 +5229,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="78"/>
+      <c r="B65" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="75"/>
+      <c r="E65" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="68"/>
+      <c r="G65" s="127"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5258,13 +5278,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5285,8 +5305,12 @@
       <c r="O66" s="42">
         <v>15</v>
       </c>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
+      <c r="P66" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="42">
+        <v>5</v>
+      </c>
       <c r="R66" s="42"/>
       <c r="S66" s="42"/>
       <c r="T66" s="42"/>
@@ -5299,19 +5323,19 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="78"/>
+      <c r="B67" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="75"/>
+      <c r="E67" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="66"/>
-      <c r="G67" s="68"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5346,29 +5370,34 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="I68" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="55">
+        <v>5</v>
+      </c>
+      <c r="K68" s="10"/>
       <c r="L68" s="42"/>
       <c r="M68" s="42"/>
       <c r="N68" s="42"/>
       <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
-      <c r="Q68" s="42"/>
+      <c r="P68" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="42">
+        <v>5</v>
+      </c>
       <c r="R68" s="42"/>
       <c r="S68" s="42"/>
       <c r="T68" s="42"/>
@@ -5381,19 +5410,19 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="78"/>
+      <c r="B69" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="66" t="s">
+      <c r="D69" s="75"/>
+      <c r="E69" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="68"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="127"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5428,19 +5457,23 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I70" s="43"/>
-      <c r="J70" s="55"/>
+      <c r="I70" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J70" s="55">
+        <v>3</v>
+      </c>
       <c r="K70" s="10">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -5450,7 +5483,9 @@
       <c r="N70" s="42"/>
       <c r="O70" s="42"/>
       <c r="P70" s="42"/>
-      <c r="Q70" s="42"/>
+      <c r="Q70" s="42">
+        <v>3</v>
+      </c>
       <c r="R70" s="42"/>
       <c r="S70" s="42"/>
       <c r="T70" s="42"/>
@@ -5463,17 +5498,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
+      <c r="A71" s="78">
         <v>2</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5499,13 +5534,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="68"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5531,19 +5566,19 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="78"/>
+      <c r="B73" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="75"/>
+      <c r="E73" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="66"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="127"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5578,18 +5613,20 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="43"/>
+      <c r="I74" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="J74" s="55"/>
       <c r="K74" s="10">
         <f t="shared" si="20"/>
@@ -5600,7 +5637,9 @@
       <c r="N74" s="42"/>
       <c r="O74" s="42"/>
       <c r="P74" s="42"/>
-      <c r="Q74" s="42"/>
+      <c r="Q74" s="42">
+        <v>1.25</v>
+      </c>
       <c r="R74" s="42"/>
       <c r="S74" s="42"/>
       <c r="T74" s="42"/>
@@ -5613,19 +5652,19 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="78"/>
+      <c r="B75" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="75"/>
+      <c r="E75" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="66"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5660,18 +5699,20 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I76" s="43"/>
+      <c r="I76" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="J76" s="55"/>
       <c r="K76" s="10">
         <f t="shared" si="20"/>
@@ -5682,7 +5723,9 @@
       <c r="N76" s="42"/>
       <c r="O76" s="42"/>
       <c r="P76" s="42"/>
-      <c r="Q76" s="42"/>
+      <c r="Q76" s="42">
+        <v>0.8</v>
+      </c>
       <c r="R76" s="42"/>
       <c r="S76" s="42"/>
       <c r="T76" s="42"/>
@@ -5695,19 +5738,19 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="78"/>
+      <c r="B77" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="66" t="s">
+      <c r="D77" s="75"/>
+      <c r="E77" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="66"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="127"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5742,19 +5785,23 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="61"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
+      <c r="I78" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="55">
+        <v>1</v>
+      </c>
       <c r="K78" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -5764,7 +5811,9 @@
       <c r="N78" s="44"/>
       <c r="O78" s="44"/>
       <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
+      <c r="Q78" s="44">
+        <v>0.16</v>
+      </c>
       <c r="R78" s="44"/>
       <c r="S78" s="44"/>
       <c r="T78" s="44"/>
@@ -5777,15 +5826,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="88"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="121"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5849,13 +5898,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89"/>
+      <c r="A80" s="87"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="122"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5919,19 +5968,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="78">
         <v>1</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="92"/>
+      <c r="D81" s="75"/>
+      <c r="E81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="67"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5957,13 +6006,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="93"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="68"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5989,19 +6038,19 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="78"/>
+      <c r="B83" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="66"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -6038,13 +6087,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6073,19 +6122,19 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="78"/>
+      <c r="B85" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="68"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="127"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6122,13 +6171,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="61"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6157,15 +6206,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="88"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="121"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6229,13 +6278,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="89"/>
+      <c r="A88" s="87"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="91"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="122"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6299,17 +6348,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58">
+      <c r="A89" s="78">
         <v>1</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="75"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="67"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6335,13 +6384,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="68"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6367,19 +6416,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="78"/>
+      <c r="B91" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66" t="s">
+      <c r="D91" s="75"/>
+      <c r="E91" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="127"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6416,13 +6465,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="61"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6451,19 +6500,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="78"/>
+      <c r="B93" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="82"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6494,13 +6543,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6529,17 +6578,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="78">
         <v>2</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="75"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="67"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6565,13 +6614,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="68"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6597,19 +6646,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="78"/>
+      <c r="B97" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66" t="s">
+      <c r="D97" s="75"/>
+      <c r="E97" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="127"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6644,13 +6693,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6679,19 +6728,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="78"/>
+      <c r="B99" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="66" t="s">
+      <c r="D99" s="75"/>
+      <c r="E99" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="68"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="127"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6726,13 +6775,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="61"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="81"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6761,15 +6810,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="88"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="121"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6833,13 +6882,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="89"/>
+      <c r="A102" s="87"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="91"/>
+      <c r="F102" s="91"/>
+      <c r="G102" s="122"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6903,17 +6952,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="78">
         <v>1</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="67"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6939,13 +6988,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="79"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -6971,19 +7020,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="78"/>
+      <c r="B105" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="127"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -7018,13 +7067,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="61"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="81"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -7053,19 +7102,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="78"/>
+      <c r="B107" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="75"/>
+      <c r="E107" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="127"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7100,13 +7149,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7135,17 +7184,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="78">
         <v>2</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="67"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7171,13 +7220,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="68"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7203,19 +7252,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="78"/>
+      <c r="B111" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66" t="s">
+      <c r="D111" s="75"/>
+      <c r="E111" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="127"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7250,13 +7299,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="61"/>
+      <c r="A112" s="79"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="81"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7285,19 +7334,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="58"/>
-      <c r="B113" s="60" t="s">
+      <c r="A113" s="78"/>
+      <c r="B113" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="66" t="s">
+      <c r="D113" s="75"/>
+      <c r="E113" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="66"/>
-      <c r="G113" s="68"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="127"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7332,13 +7381,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="61"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="81"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7385,44 +7434,271 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7447,271 +7723,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7791,15 +7840,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -7983,6 +8023,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -7993,14 +8042,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8016,4 +8057,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556558C-5983-437D-AA93-E5BBBCA27533}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67D723-A111-4598-A4C1-052491B75912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -1425,6 +1425,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,37 +1536,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,95 +1588,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1581,12 +1617,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1604,36 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2201,10 +2201,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2223,19 +2223,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="95" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="95" t="s">
@@ -2247,132 +2247,132 @@
       <c r="J1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61">
+      <c r="L1" s="90">
         <v>43990</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="61">
+      <c r="M1" s="91"/>
+      <c r="N1" s="90">
         <v>43991</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="61">
+      <c r="O1" s="91"/>
+      <c r="P1" s="90">
         <v>43992</v>
       </c>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="61">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90">
         <v>43993</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="61">
+      <c r="S1" s="91"/>
+      <c r="T1" s="90">
         <v>43994</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="61">
+      <c r="U1" s="91"/>
+      <c r="V1" s="90">
         <v>43997</v>
       </c>
-      <c r="W1" s="62"/>
+      <c r="W1" s="91"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="58" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="58" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="58" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="58" t="s">
+      <c r="S2" s="93"/>
+      <c r="T2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="58" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="59"/>
+      <c r="W2" s="93"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="94"/>
+      <c r="N3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60" t="s">
+      <c r="S3" s="94"/>
+      <c r="T3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="94"/>
+      <c r="V3" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="60"/>
+      <c r="W3" s="94"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="120"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="106"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2415,15 +2415,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="125"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2491,13 +2491,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="107"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="126"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="Q6" s="28">
         <f t="shared" si="1"/>
-        <v>15.21</v>
+        <v>16.21</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" si="1"/>
@@ -2561,15 +2561,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="115"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2635,13 +2635,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="116"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="126"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2705,17 +2705,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72">
+      <c r="A9" s="110">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2738,13 +2738,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2767,21 +2767,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2816,13 +2816,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="66"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2857,21 +2857,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="72"/>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2906,13 +2906,13 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="66"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="72"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2947,17 +2947,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="72">
+      <c r="A15" s="110">
         <v>2</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2983,13 +2983,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3015,21 +3015,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3064,13 +3064,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="66"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3105,21 +3105,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="127"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3154,13 +3154,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="55" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3195,21 +3195,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="72"/>
-      <c r="B21" s="71" t="s">
+      <c r="A21" s="110"/>
+      <c r="B21" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3244,13 +3244,13 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3285,15 +3285,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3357,13 +3357,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3427,17 +3427,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="72">
+      <c r="A25" s="110">
         <v>1</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="67"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3463,13 +3463,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3495,21 +3495,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="72"/>
-      <c r="B27" s="71" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="63" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3544,13 +3544,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="66"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3585,21 +3585,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="72"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="63" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3634,13 +3634,13 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="66"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="72"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3675,21 +3675,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="72"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="63" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="71"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3724,13 +3724,13 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="66"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="72"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3765,21 +3765,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="72"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="75"/>
-      <c r="E33" s="63" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="63" t="s">
+      <c r="F33" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="71"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3814,13 +3814,13 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="66"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="72"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3855,17 +3855,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="72">
+      <c r="A35" s="110">
         <v>2</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="92"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="67"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="78"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3891,13 +3891,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="79"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3923,21 +3923,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="71" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="63" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3972,13 +3972,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="66"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4013,21 +4013,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="80" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="82" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="127"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4062,13 +4062,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="81"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="61"/>
       <c r="H40" s="55" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4103,21 +4103,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="71" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="63" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="63" t="s">
+      <c r="F41" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="65"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4152,13 +4152,13 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="66"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
@@ -4193,15 +4193,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="121"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="88"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4265,13 +4265,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="122"/>
+      <c r="A44" s="83"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="89"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4335,17 +4335,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="72">
+      <c r="A45" s="110">
         <v>1</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4371,13 +4371,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="68"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="79"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4403,21 +4403,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="80" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="82" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="82" t="s">
+      <c r="F47" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="127"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4452,13 +4452,13 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="81"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="55" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4493,21 +4493,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="71" t="s">
+      <c r="A49" s="110"/>
+      <c r="B49" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="63" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="65"/>
+      <c r="G49" s="71"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4544,13 +4544,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="73"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="66"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4587,21 +4587,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="80" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="82" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="82" t="s">
+      <c r="F51" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="127"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4638,13 +4638,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="81"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="55" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4681,17 +4681,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72">
+      <c r="A53" s="110">
         <v>2</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="67"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="78"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4717,13 +4717,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="73"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="68"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="79"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4749,21 +4749,21 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="72"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="110"/>
+      <c r="B55" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="75"/>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="63" t="s">
+      <c r="F55" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="65"/>
+      <c r="G55" s="71"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4798,13 +4798,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="73"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="66"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4839,21 +4839,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="110"/>
+      <c r="B57" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="75"/>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="63"/>
+      <c r="E57" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="F57" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="65"/>
+      <c r="G57" s="71"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4888,13 +4888,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="73"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="66"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4929,21 +4929,21 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="72"/>
-      <c r="B59" s="71" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="75"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="63" t="s">
+      <c r="F59" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="65"/>
+      <c r="G59" s="71"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4978,13 +4978,13 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="73"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="66"/>
+      <c r="A60" s="111"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="72"/>
       <c r="H60" s="54" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -5019,15 +5019,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="121"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="88"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5091,13 +5091,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="87"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="122"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="Q62" s="21" cm="1">
         <f t="array" ref="Q62">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=0)*Q$63:Q$78)</f>
-        <v>15.21</v>
+        <v>13.21</v>
       </c>
       <c r="R62" s="21" cm="1">
         <f t="array" ref="R62">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=0)*R$63:R$78)</f>
@@ -5161,17 +5161,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78">
+      <c r="A63" s="58">
         <v>1</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="67"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="78"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5197,13 +5197,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="68"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="79"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5229,21 +5229,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="80" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="75"/>
-      <c r="E65" s="82" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="127"/>
+      <c r="F65" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="68"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5278,13 +5278,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="55" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5309,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="Q66" s="42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R66" s="42"/>
       <c r="S66" s="42"/>
@@ -5323,19 +5323,21 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78"/>
-      <c r="B67" s="80" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="75"/>
-      <c r="E67" s="82" t="s">
+      <c r="D67" s="63"/>
+      <c r="E67" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="127"/>
+      <c r="F67" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="68"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5370,13 +5372,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="81"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="61"/>
       <c r="H68" s="55" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5396,7 +5398,7 @@
         <v>5</v>
       </c>
       <c r="Q68" s="42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R68" s="42"/>
       <c r="S68" s="42"/>
@@ -5410,19 +5412,21 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="80" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="82" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="82"/>
-      <c r="G69" s="127"/>
+      <c r="F69" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="68"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5457,13 +5461,13 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="76"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="81"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="61"/>
       <c r="H70" s="55" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5498,17 +5502,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78">
+      <c r="A71" s="58">
         <v>2</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="92"/>
-      <c r="D71" s="75"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="67"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="78"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5534,13 +5538,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="68"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="79"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5566,19 +5570,21 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="80" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="75"/>
-      <c r="E73" s="82" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="82"/>
-      <c r="G73" s="127"/>
+      <c r="F73" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="68"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5613,13 +5619,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="61"/>
       <c r="H74" s="55" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5652,19 +5658,21 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="78"/>
-      <c r="B75" s="80" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="82" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="82"/>
-      <c r="G75" s="127"/>
+      <c r="F75" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="68"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5699,13 +5707,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="79"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="61"/>
       <c r="H76" s="55" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5738,19 +5746,21 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="78"/>
-      <c r="B77" s="80" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="74" t="s">
+      <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="75"/>
-      <c r="E77" s="82" t="s">
+      <c r="D77" s="63"/>
+      <c r="E77" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="82"/>
-      <c r="G77" s="127"/>
+      <c r="F77" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G77" s="68"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5785,13 +5795,13 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="81"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="61"/>
       <c r="H78" s="55" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
@@ -5826,15 +5836,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="121"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="86"/>
+      <c r="F79" s="86"/>
+      <c r="G79" s="88"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5898,13 +5908,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="87"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="122"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="89"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5936,7 +5946,7 @@
       </c>
       <c r="Q80" s="21" cm="1">
         <f t="array" ref="Q80">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=0)*Q$81:Q$86)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R80" s="21" cm="1">
         <f t="array" ref="R80">SUMPRODUCT((MOD(ROW(R$81:R$86),2)=0)*R$81:R$86)</f>
@@ -5968,19 +5978,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="78">
+      <c r="A81" s="58">
         <v>1</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="75"/>
-      <c r="E81" s="69" t="s">
+      <c r="C81" s="73"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="67"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="78"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -6006,13 +6016,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="79"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="68"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -6038,19 +6048,21 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="78"/>
-      <c r="B83" s="80" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="82" t="s">
+      <c r="D83" s="63"/>
+      <c r="E83" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="127"/>
+      <c r="F83" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="68"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -6087,13 +6099,13 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="79"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="61"/>
       <c r="H84" s="55" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
@@ -6109,7 +6121,9 @@
       <c r="N84" s="42"/>
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
+      <c r="Q84" s="42">
+        <v>3</v>
+      </c>
       <c r="R84" s="42"/>
       <c r="S84" s="42"/>
       <c r="T84" s="42"/>
@@ -6122,19 +6136,21 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="78"/>
-      <c r="B85" s="80" t="s">
+      <c r="A85" s="58"/>
+      <c r="B85" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="74" t="s">
+      <c r="C85" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="82" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="82"/>
-      <c r="G85" s="127"/>
+      <c r="F85" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="68"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6171,13 +6187,13 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="81"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="81"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="61"/>
       <c r="H86" s="55" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
@@ -6206,15 +6222,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="121"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="86"/>
+      <c r="F87" s="86"/>
+      <c r="G87" s="88"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6278,13 +6294,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="87"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="122"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6348,17 +6364,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="78">
+      <c r="A89" s="58">
         <v>1</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="92"/>
-      <c r="D89" s="75"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="67"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="78"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6384,13 +6400,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="79"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="68"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="79"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6416,19 +6432,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="78"/>
-      <c r="B91" s="80" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="74" t="s">
+      <c r="C91" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="75"/>
-      <c r="E91" s="82" t="s">
+      <c r="D91" s="63"/>
+      <c r="E91" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="82"/>
-      <c r="G91" s="127"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6465,13 +6481,13 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="79"/>
-      <c r="B92" s="81"/>
-      <c r="C92" s="76"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="81"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="55" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
@@ -6500,19 +6516,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78"/>
-      <c r="B93" s="80" t="s">
+      <c r="A93" s="58"/>
+      <c r="B93" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="75"/>
-      <c r="E93" s="82" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="82"/>
-      <c r="G93" s="127"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="68"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6543,13 +6559,13 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="79"/>
-      <c r="B94" s="81"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="81"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="55" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6578,17 +6594,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="78">
+      <c r="A95" s="58">
         <v>2</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="75"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="67"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="78"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6614,13 +6630,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="79"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="93"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="68"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="79"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6646,19 +6662,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="78"/>
-      <c r="B97" s="80" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="74" t="s">
+      <c r="C97" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="75"/>
-      <c r="E97" s="82" t="s">
+      <c r="D97" s="63"/>
+      <c r="E97" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="82"/>
-      <c r="G97" s="127"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6693,13 +6709,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="79"/>
-      <c r="B98" s="81"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="61"/>
       <c r="H98" s="55" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6728,19 +6744,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="78"/>
-      <c r="B99" s="80" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="75"/>
-      <c r="E99" s="82" t="s">
+      <c r="D99" s="63"/>
+      <c r="E99" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="82"/>
-      <c r="G99" s="127"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="68"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6775,13 +6791,13 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="81"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="61"/>
       <c r="H100" s="55" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6810,15 +6826,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="90"/>
-      <c r="G101" s="121"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="82"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="88"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6882,13 +6898,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="87"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="91"/>
-      <c r="F102" s="91"/>
-      <c r="G102" s="122"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="89"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6952,17 +6968,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="78">
+      <c r="A103" s="58">
         <v>1</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="67"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="78"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -6988,13 +7004,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="79"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="93"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="68"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -7020,19 +7036,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="78"/>
-      <c r="B105" s="80" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="74" t="s">
+      <c r="C105" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="75"/>
-      <c r="E105" s="82" t="s">
+      <c r="D105" s="63"/>
+      <c r="E105" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="82"/>
-      <c r="G105" s="127"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -7067,13 +7083,13 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="79"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="81"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="61"/>
       <c r="H106" s="55" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -7102,19 +7118,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78"/>
-      <c r="B107" s="80" t="s">
+      <c r="A107" s="58"/>
+      <c r="B107" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="75"/>
-      <c r="E107" s="82" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="82"/>
-      <c r="G107" s="127"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7149,13 +7165,13 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="79"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="61"/>
       <c r="H108" s="55" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -7184,17 +7200,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78">
+      <c r="A109" s="58">
         <v>2</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="75"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="67"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="78"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7220,13 +7236,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="79"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="93"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="68"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="79"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7252,19 +7268,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="78"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="74" t="s">
+      <c r="C111" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="75"/>
-      <c r="E111" s="82" t="s">
+      <c r="D111" s="63"/>
+      <c r="E111" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="82"/>
-      <c r="G111" s="127"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7299,13 +7315,13 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="79"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="81"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="55" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
@@ -7334,19 +7350,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="78"/>
-      <c r="B113" s="80" t="s">
+      <c r="A113" s="58"/>
+      <c r="B113" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="74" t="s">
+      <c r="C113" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="75"/>
-      <c r="E113" s="82" t="s">
+      <c r="D113" s="63"/>
+      <c r="E113" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="82"/>
-      <c r="G113" s="127"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="68"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7381,13 +7397,13 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="79"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="81"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="61"/>
       <c r="H114" s="55" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
@@ -7434,6 +7450,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7458,309 +7777,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7840,6 +7856,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -8023,15 +8048,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -8042,6 +8058,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8057,12 +8081,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E67D723-A111-4598-A4C1-052491B75912}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4279083-635C-4A93-B5DB-E0065B6BF639}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="315" windowWidth="20280" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -482,6 +482,20 @@
     <rPh sb="0" eb="2">
       <t>ヨコイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今竹、鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>イマタケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横井、鈴木、栢沼、</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1260,7 +1274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1395,15 +1409,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,6 +1430,66 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1437,203 +1502,143 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2201,10 +2206,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G83" sqref="G83:G84"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2223,156 +2228,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="90">
+      <c r="L1" s="58">
         <v>43990</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="90">
+      <c r="M1" s="59"/>
+      <c r="N1" s="58">
         <v>43991</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="90">
+      <c r="O1" s="59"/>
+      <c r="P1" s="58">
         <v>43992</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="90">
+      <c r="Q1" s="59"/>
+      <c r="R1" s="58">
         <v>43993</v>
       </c>
-      <c r="S1" s="91"/>
-      <c r="T1" s="90">
+      <c r="S1" s="59"/>
+      <c r="T1" s="58">
         <v>43994</v>
       </c>
-      <c r="U1" s="91"/>
-      <c r="V1" s="90">
+      <c r="U1" s="59"/>
+      <c r="V1" s="58">
         <v>43997</v>
       </c>
-      <c r="W1" s="91"/>
+      <c r="W1" s="59"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="92" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="93"/>
-      <c r="N2" s="92" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="92" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="92" t="s">
+      <c r="Q2" s="56"/>
+      <c r="R2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="92" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="92" t="s">
+      <c r="U2" s="56"/>
+      <c r="V2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="93"/>
+      <c r="W2" s="56"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="94" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94" t="s">
+      <c r="U3" s="57"/>
+      <c r="V3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="94"/>
+      <c r="W3" s="57"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="106"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2414,16 +2419,16 @@
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
     </row>
-    <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="116" t="s">
+    <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2463,7 +2468,7 @@
       </c>
       <c r="R5" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S5" s="17">
         <f t="shared" si="0"/>
@@ -2490,18 +2495,20 @@
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
     </row>
-    <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="101"/>
+    <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="123"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="19"/>
       <c r="K6" s="40">
         <f>SUM(K8,K24,K44)</f>
@@ -2533,7 +2540,7 @@
       </c>
       <c r="R6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.07</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" si="1"/>
@@ -2560,16 +2567,16 @@
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
     </row>
-    <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="122" t="s">
+    <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2634,18 +2641,20 @@
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
     </row>
-    <row r="8" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="126"/>
+    <row r="8" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="113"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f t="shared" ref="K8:O8" si="4">SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
@@ -2705,17 +2714,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110">
+      <c r="A9" s="69">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2738,13 +2747,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="111"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="79"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2767,21 +2776,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="110"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2816,21 +2825,21 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="54" t="str">
+      <c r="A12" s="70"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="51" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="51">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -2857,21 +2866,21 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="110"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="72"/>
+      <c r="E13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2906,21 +2915,21 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="54" t="str">
+      <c r="A14" s="70"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="51" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="51">
         <v>4</v>
       </c>
       <c r="K14" s="10">
@@ -2947,17 +2956,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="110">
+      <c r="A15" s="69">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2983,13 +2992,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="79"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3015,21 +3024,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="110"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3064,21 +3073,21 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="111"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="54" t="str">
+      <c r="A18" s="70"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="51" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <v>5</v>
       </c>
       <c r="K18" s="10">
@@ -3105,21 +3114,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="58"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="72"/>
+      <c r="E19" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3154,21 +3163,21 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="55" t="str">
+      <c r="A20" s="76"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="52">
         <v>5</v>
       </c>
       <c r="K20" s="10">
@@ -3195,21 +3204,21 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3244,21 +3253,21 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="111"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="54" t="str">
+      <c r="A22" s="70"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="51" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="51">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -3285,21 +3294,21 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="118"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="53">
+      <c r="K23" s="50">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
         <v>5.3500000000000005</v>
       </c>
@@ -3357,13 +3366,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="89"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3427,17 +3436,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110">
+      <c r="A25" s="69">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3463,13 +3472,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="111"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="79"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3495,21 +3504,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="110"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="72"/>
+      <c r="E27" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="71"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3544,21 +3553,21 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="54" t="str">
+      <c r="A28" s="70"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="51" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I28" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="51">
         <v>1</v>
       </c>
       <c r="K28" s="10">
@@ -3585,21 +3594,21 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="110"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="72"/>
+      <c r="E29" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="71"/>
+      <c r="G29" s="62"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3634,21 +3643,21 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="54" t="str">
+      <c r="A30" s="70"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="51" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="51">
         <v>4</v>
       </c>
       <c r="K30" s="10">
@@ -3675,21 +3684,21 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="110"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="72"/>
+      <c r="E31" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="71"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3724,21 +3733,21 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="54" t="str">
+      <c r="A32" s="70"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="51" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="56" t="s">
+      <c r="I32" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="51">
         <v>1</v>
       </c>
       <c r="K32" s="10">
@@ -3765,21 +3774,21 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="110"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="69" t="s">
+      <c r="D33" s="72"/>
+      <c r="E33" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="71"/>
+      <c r="G33" s="62"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3814,21 +3823,21 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="54" t="str">
+      <c r="A34" s="70"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="51" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="51">
         <v>1</v>
       </c>
       <c r="K34" s="10">
@@ -3855,17 +3864,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="110">
+      <c r="A35" s="69">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="78"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="64"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3891,13 +3900,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="79"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="65"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3923,21 +3932,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="110"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="72"/>
+      <c r="E37" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="71"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3972,21 +3981,21 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="54" t="str">
+      <c r="A38" s="70"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="51" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="51">
         <v>5</v>
       </c>
       <c r="K38" s="10">
@@ -4013,21 +4022,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="58"/>
-      <c r="B39" s="60" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="72"/>
+      <c r="E39" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="68"/>
+      <c r="G39" s="124"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4062,21 +4071,21 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="59"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="55" t="str">
+      <c r="A40" s="76"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="55">
+      <c r="J40" s="52">
         <v>5</v>
       </c>
       <c r="K40" s="10">
@@ -4103,21 +4112,21 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="110"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="69" t="s">
+      <c r="D41" s="72"/>
+      <c r="E41" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="71"/>
+      <c r="G41" s="62"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
@@ -4152,21 +4161,21 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="54" t="str">
+      <c r="A42" s="70"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="51" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J42" s="54">
+      <c r="J42" s="51">
         <v>1</v>
       </c>
       <c r="K42" s="10">
@@ -4193,21 +4202,21 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="53" cm="1">
+      <c r="K43" s="50" cm="1">
         <f t="array" ref="K43">SUMPRODUCT((MOD(ROW(K$45:K$60),2)=1)*K$45:K$60)</f>
         <v>24.71</v>
       </c>
@@ -4265,19 +4274,19 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="83"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="119"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="57">
+      <c r="K44" s="54">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$60),2)=0)*K$45:K$60)</f>
         <v>24.82</v>
       </c>
@@ -4335,17 +4344,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="110">
+      <c r="A45" s="69">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="78"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="64"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4371,13 +4380,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4403,21 +4412,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="60" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="66" t="s">
+      <c r="D47" s="72"/>
+      <c r="E47" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="66" t="s">
+      <c r="F47" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="68"/>
+      <c r="G47" s="124"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4452,21 +4461,21 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="59"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="55" t="str">
+      <c r="A48" s="76"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I48" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J48" s="55">
+      <c r="J48" s="52">
         <v>1</v>
       </c>
       <c r="K48" s="10">
@@ -4493,21 +4502,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="110"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="69" t="s">
+      <c r="D49" s="72"/>
+      <c r="E49" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="71"/>
+      <c r="G49" s="62"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4544,21 +4553,21 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="54" t="str">
+      <c r="A50" s="70"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="51" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="54">
+      <c r="J50" s="51">
         <v>5</v>
       </c>
       <c r="K50" s="10">
@@ -4587,21 +4596,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="58"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="75"/>
+      <c r="B51" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="66" t="s">
+      <c r="D51" s="72"/>
+      <c r="E51" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="66" t="s">
+      <c r="F51" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="68"/>
+      <c r="G51" s="124"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4638,21 +4647,21 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="55" t="str">
+      <c r="A52" s="76"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="55">
+      <c r="J52" s="52">
         <v>5</v>
       </c>
       <c r="K52" s="10">
@@ -4681,17 +4690,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="110">
+      <c r="A53" s="69">
         <v>2</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="78"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="64"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4717,13 +4726,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="65"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4749,21 +4758,21 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="110"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="72"/>
+      <c r="E55" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G55" s="71"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4798,21 +4807,21 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="54" t="str">
+      <c r="A56" s="70"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="51" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="54">
+      <c r="J56" s="51">
         <v>5</v>
       </c>
       <c r="K56" s="10">
@@ -4839,21 +4848,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="110"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="69" t="s">
+      <c r="D57" s="72"/>
+      <c r="E57" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G57" s="71"/>
+      <c r="G57" s="62"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4888,21 +4897,21 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="54" t="str">
+      <c r="A58" s="70"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="51" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I58" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J58" s="54">
+      <c r="J58" s="51">
         <v>5</v>
       </c>
       <c r="K58" s="10">
@@ -4929,21 +4938,21 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="110"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="69" t="s">
+      <c r="D59" s="72"/>
+      <c r="E59" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="71"/>
+      <c r="G59" s="62"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4978,21 +4987,21 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="54" t="str">
+      <c r="A60" s="70"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="51" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J60" s="54">
+      <c r="J60" s="51">
         <v>1</v>
       </c>
       <c r="K60" s="10">
@@ -5019,69 +5028,69 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="88"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="118"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
-      <c r="K61" s="52" cm="1">
+      <c r="K61" s="49" cm="1">
         <f t="array" ref="K61">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=1)*K$63:K$78)</f>
-        <v>12.5</v>
-      </c>
-      <c r="L61" s="51" cm="1">
+        <v>14.71</v>
+      </c>
+      <c r="L61" s="48" cm="1">
         <f t="array" ref="L61">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=1)*L$63:L$78)</f>
         <v>0</v>
       </c>
-      <c r="M61" s="51" cm="1">
+      <c r="M61" s="48" cm="1">
         <f t="array" ref="M61">SUMPRODUCT((MOD(ROW(M$63:M$78),2)=1)*M$63:M$78)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="51" cm="1">
+      <c r="N61" s="48" cm="1">
         <f t="array" ref="N61">SUMPRODUCT((MOD(ROW(N$63:N$78),2)=1)*N$63:N$78)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="51" cm="1">
+      <c r="O61" s="48" cm="1">
         <f t="array" ref="O61">SUMPRODUCT((MOD(ROW(O$63:O$78),2)=1)*O$63:O$78)</f>
         <v>12.5</v>
       </c>
-      <c r="P61" s="51" cm="1">
+      <c r="P61" s="48" cm="1">
         <f t="array" ref="P61">SUMPRODUCT((MOD(ROW(P$63:P$78),2)=1)*P$63:P$78)</f>
         <v>2.21</v>
       </c>
-      <c r="Q61" s="51" cm="1">
+      <c r="Q61" s="48" cm="1">
         <f t="array" ref="Q61">SUMPRODUCT((MOD(ROW(Q$63:Q$78),2)=1)*Q$63:Q$78)</f>
         <v>0</v>
       </c>
-      <c r="R61" s="51" cm="1">
+      <c r="R61" s="48" cm="1">
         <f t="array" ref="R61">SUMPRODUCT((MOD(ROW(R$63:R$78),2)=1)*R$63:R$78)</f>
         <v>0</v>
       </c>
-      <c r="S61" s="51" cm="1">
+      <c r="S61" s="48" cm="1">
         <f t="array" ref="S61">SUMPRODUCT((MOD(ROW(S$63:S$78),2)=1)*S$63:S$78)</f>
         <v>0</v>
       </c>
-      <c r="T61" s="51" cm="1">
+      <c r="T61" s="48" cm="1">
         <f t="array" ref="T61">SUMPRODUCT((MOD(ROW(T$63:T$78),2)=1)*T$63:T$78)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="51" cm="1">
+      <c r="U61" s="48" cm="1">
         <f t="array" ref="U61">SUMPRODUCT((MOD(ROW(U$63:U$78),2)=1)*U$63:U$78)</f>
         <v>0</v>
       </c>
-      <c r="V61" s="51" cm="1">
+      <c r="V61" s="48" cm="1">
         <f t="array" ref="V61">SUMPRODUCT((MOD(ROW(V$63:V$78),2)=1)*V$63:V$78)</f>
         <v>0</v>
       </c>
-      <c r="W61" s="51" cm="1">
+      <c r="W61" s="48" cm="1">
         <f t="array" ref="W61">SUMPRODUCT((MOD(ROW(W$63:W$78),2)=1)*W$63:W$78)</f>
         <v>0</v>
       </c>
@@ -5091,21 +5100,21 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="89"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="119"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="53" cm="1">
-        <f t="array" ref="K62">SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
-        <v>15</v>
+      <c r="K62" s="50">
+        <f>SUMPRODUCT((MOD(ROW(K$63:K$78),2)=0)*K$63:K$78)</f>
+        <v>38.209999999999994</v>
       </c>
       <c r="L62" s="21" cm="1">
         <f t="array" ref="L62">SUMPRODUCT((MOD(ROW(L$63:L$78),2)=0)*L$63:L$78)</f>
@@ -5161,17 +5170,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="58">
+      <c r="A63" s="75">
         <v>1</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="78"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="64"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5197,13 +5206,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="79"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="65"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5229,21 +5238,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60" t="s">
+      <c r="A65" s="75"/>
+      <c r="B65" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="72"/>
+      <c r="E65" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G65" s="68"/>
+      <c r="G65" s="124"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5255,7 +5264,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" ref="K65:K70" si="19">SUM(L65:O65)</f>
+        <f>SUM(L65:W65)</f>
         <v>5</v>
       </c>
       <c r="L65" s="41"/>
@@ -5278,26 +5287,26 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="55" t="str">
+      <c r="A66" s="76"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I66" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J66" s="55">
+      <c r="J66" s="52">
         <v>5</v>
       </c>
-      <c r="K66" s="10">
-        <f t="shared" si="19"/>
-        <v>15</v>
+      <c r="K66" s="9">
+        <f t="shared" ref="K66:K115" si="19">SUM(L66:W66)</f>
+        <v>24</v>
       </c>
       <c r="L66" s="42"/>
       <c r="M66" s="42"/>
@@ -5323,21 +5332,21 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60" t="s">
+      <c r="A67" s="75"/>
+      <c r="B67" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="66" t="s">
+      <c r="D67" s="72"/>
+      <c r="E67" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="66" t="s">
+      <c r="F67" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G67" s="68"/>
+      <c r="G67" s="124"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5372,24 +5381,27 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="55" t="str">
+      <c r="A68" s="76"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="55">
+      <c r="J68" s="52">
         <v>5</v>
       </c>
-      <c r="K68" s="10"/>
+      <c r="K68" s="9">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
       <c r="L68" s="42"/>
       <c r="M68" s="42"/>
       <c r="N68" s="42"/>
@@ -5412,21 +5424,21 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60" t="s">
+      <c r="A69" s="75"/>
+      <c r="B69" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="62" t="s">
+      <c r="C69" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="66" t="s">
+      <c r="D69" s="72"/>
+      <c r="E69" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="66" t="s">
+      <c r="F69" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G69" s="68"/>
+      <c r="G69" s="124"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5461,26 +5473,26 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="55" t="str">
+      <c r="A70" s="76"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I70" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J70" s="55">
+      <c r="J70" s="52">
         <v>3</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" s="42"/>
       <c r="M70" s="42"/>
@@ -5502,24 +5514,27 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="58">
+      <c r="A71" s="75">
         <v>2</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="78"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="64"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
-      <c r="K71" s="26"/>
+      <c r="K71" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L71" s="41"/>
       <c r="M71" s="41"/>
       <c r="N71" s="41"/>
@@ -5538,20 +5553,23 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="59"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="79"/>
+      <c r="A72" s="76"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="65"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
       </c>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="27"/>
+      <c r="K72" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L72" s="42"/>
       <c r="M72" s="42"/>
       <c r="N72" s="42"/>
@@ -5570,21 +5588,21 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60" t="s">
+      <c r="A73" s="75"/>
+      <c r="B73" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="66" t="s">
+      <c r="D73" s="72"/>
+      <c r="E73" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="66" t="s">
+      <c r="F73" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G73" s="68"/>
+      <c r="G73" s="124"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5596,8 +5614,8 @@
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" ref="K73:K78" si="20">SUM(L73:O73)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="L73" s="41"/>
       <c r="M73" s="41"/>
@@ -5619,24 +5637,26 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="55" t="str">
+      <c r="A74" s="76"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I74" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="55"/>
-      <c r="K74" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
+      <c r="J74" s="52">
+        <v>5</v>
+      </c>
+      <c r="K74" s="9">
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="L74" s="42"/>
       <c r="M74" s="42"/>
@@ -5658,21 +5678,21 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60" t="s">
+      <c r="A75" s="75"/>
+      <c r="B75" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="66" t="s">
+      <c r="D75" s="72"/>
+      <c r="E75" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G75" s="68"/>
+      <c r="G75" s="124"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5684,8 +5704,8 @@
         <v>5</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.8</v>
       </c>
       <c r="L75" s="41"/>
       <c r="M75" s="41"/>
@@ -5707,24 +5727,26 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="55" t="str">
+      <c r="A76" s="76"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="78"/>
+      <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I76" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J76" s="55"/>
-      <c r="K76" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
+      <c r="J76" s="52">
+        <v>5</v>
+      </c>
+      <c r="K76" s="9">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
       </c>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
@@ -5746,21 +5768,21 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="58"/>
-      <c r="B77" s="60" t="s">
+      <c r="A77" s="75"/>
+      <c r="B77" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="62" t="s">
+      <c r="C77" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="63"/>
-      <c r="E77" s="66" t="s">
+      <c r="D77" s="72"/>
+      <c r="E77" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="66" t="s">
+      <c r="F77" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G77" s="68"/>
+      <c r="G77" s="124"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5772,8 +5794,8 @@
         <v>1</v>
       </c>
       <c r="K77" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L77" s="41"/>
       <c r="M77" s="41"/>
@@ -5795,26 +5817,26 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="55" t="str">
+      <c r="A78" s="76"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="52" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I78" s="55" t="s">
+      <c r="I78" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="J78" s="55">
+      <c r="J78" s="52">
         <v>1</v>
       </c>
-      <c r="K78" s="10">
-        <f t="shared" si="20"/>
-        <v>0</v>
+      <c r="K78" s="9">
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L78" s="44"/>
       <c r="M78" s="44"/>
@@ -5836,69 +5858,69 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="80" t="s">
+      <c r="A79" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="86"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="88"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="118"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="20"/>
-      <c r="K79" s="52" cm="1">
-        <f t="array" ref="K79">SUMPRODUCT((MOD(ROW(K$81:K$86),2)=1)*K$81:K$86)</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="51" cm="1">
+      <c r="K79" s="9">
+        <f t="shared" si="19"/>
+        <v>22.5</v>
+      </c>
+      <c r="L79" s="48" cm="1">
         <f t="array" ref="L79">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=1)*L$81:L$86)</f>
         <v>0</v>
       </c>
-      <c r="M79" s="51" cm="1">
+      <c r="M79" s="48" cm="1">
         <f t="array" ref="M79">SUMPRODUCT((MOD(ROW(M$81:M$86),2)=1)*M$81:M$86)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="51" cm="1">
+      <c r="N79" s="48" cm="1">
         <f t="array" ref="N79">SUMPRODUCT((MOD(ROW(N$81:N$86),2)=1)*N$81:N$86)</f>
         <v>0</v>
       </c>
-      <c r="O79" s="51" cm="1">
+      <c r="O79" s="48" cm="1">
         <f t="array" ref="O79">SUMPRODUCT((MOD(ROW(O$81:O$86),2)=1)*O$81:O$86)</f>
         <v>0</v>
       </c>
-      <c r="P79" s="51" cm="1">
+      <c r="P79" s="48" cm="1">
         <f t="array" ref="P79">SUMPRODUCT((MOD(ROW(P$81:P$86),2)=1)*P$81:P$86)</f>
         <v>7.5</v>
       </c>
-      <c r="Q79" s="51" cm="1">
+      <c r="Q79" s="48" cm="1">
         <f t="array" ref="Q79">SUMPRODUCT((MOD(ROW(Q$81:Q$86),2)=1)*Q$81:Q$86)</f>
         <v>15</v>
       </c>
-      <c r="R79" s="51" cm="1">
+      <c r="R79" s="48" cm="1">
         <f t="array" ref="R79">SUMPRODUCT((MOD(ROW(R$81:R$86),2)=1)*R$81:R$86)</f>
         <v>0</v>
       </c>
-      <c r="S79" s="51" cm="1">
+      <c r="S79" s="48" cm="1">
         <f t="array" ref="S79">SUMPRODUCT((MOD(ROW(S$81:S$86),2)=1)*S$81:S$86)</f>
         <v>0</v>
       </c>
-      <c r="T79" s="51" cm="1">
+      <c r="T79" s="48" cm="1">
         <f t="array" ref="T79">SUMPRODUCT((MOD(ROW(T$81:T$86),2)=1)*T$81:T$86)</f>
         <v>0</v>
       </c>
-      <c r="U79" s="51" cm="1">
+      <c r="U79" s="48" cm="1">
         <f t="array" ref="U79">SUMPRODUCT((MOD(ROW(U$81:U$86),2)=1)*U$81:U$86)</f>
         <v>0</v>
       </c>
-      <c r="V79" s="51" cm="1">
+      <c r="V79" s="48" cm="1">
         <f t="array" ref="V79">SUMPRODUCT((MOD(ROW(V$81:V$86),2)=1)*V$81:V$86)</f>
         <v>0</v>
       </c>
-      <c r="W79" s="51" cm="1">
+      <c r="W79" s="48" cm="1">
         <f t="array" ref="W79">SUMPRODUCT((MOD(ROW(W$81:W$86),2)=1)*W$81:W$86)</f>
         <v>0</v>
       </c>
@@ -5908,21 +5930,21 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="89"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="119"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="K80" s="53" cm="1">
-        <f t="array" ref="K80">SUMPRODUCT((MOD(ROW(K$81:K$86),2)=0)*K$81:K$86)</f>
-        <v>0</v>
+      <c r="K80" s="9">
+        <f t="shared" si="19"/>
+        <v>10.5</v>
       </c>
       <c r="L80" s="21" cm="1">
         <f t="array" ref="L80">SUMPRODUCT((MOD(ROW(L$81:L$86),2)=0)*L$81:L$86)</f>
@@ -5950,7 +5972,7 @@
       </c>
       <c r="R80" s="21" cm="1">
         <f t="array" ref="R80">SUMPRODUCT((MOD(ROW(R$81:R$86),2)=0)*R$81:R$86)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="S80" s="21" cm="1">
         <f t="array" ref="S80">SUMPRODUCT((MOD(ROW(S$81:S$86),2)=0)*S$81:S$86)</f>
@@ -5978,26 +6000,29 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="58">
+      <c r="A81" s="75">
         <v>1</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="76" t="s">
+      <c r="C81" s="89"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="76"/>
-      <c r="G81" s="78"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="64"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
-      <c r="K81" s="26"/>
+      <c r="K81" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L81" s="41"/>
       <c r="M81" s="41"/>
       <c r="N81" s="41"/>
@@ -6016,20 +6041,23 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="59"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="79"/>
+      <c r="A82" s="76"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="65"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
-      <c r="K82" s="27"/>
+      <c r="K82" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L82" s="42"/>
       <c r="M82" s="42"/>
       <c r="N82" s="42"/>
@@ -6048,21 +6076,21 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="58"/>
-      <c r="B83" s="60" t="s">
+      <c r="A83" s="75"/>
+      <c r="B83" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="63"/>
-      <c r="E83" s="66" t="s">
+      <c r="D83" s="72"/>
+      <c r="E83" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="66" t="s">
+      <c r="F83" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="68"/>
+      <c r="G83" s="124"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
@@ -6074,8 +6102,8 @@
         <v>3</v>
       </c>
       <c r="K83" s="9">
-        <f>SUM(L83:O83)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>13.5</v>
       </c>
       <c r="L83" s="41"/>
       <c r="M83" s="41"/>
@@ -6099,22 +6127,26 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="59"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="55" t="str">
+      <c r="A84" s="76"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I84" s="43"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="10">
-        <f>SUM(L84:O84)</f>
-        <v>0</v>
+      <c r="I84" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J84" s="52">
+        <v>3</v>
+      </c>
+      <c r="K84" s="9">
+        <f t="shared" si="19"/>
+        <v>7.5</v>
       </c>
       <c r="L84" s="42"/>
       <c r="M84" s="42"/>
@@ -6124,7 +6156,9 @@
       <c r="Q84" s="42">
         <v>3</v>
       </c>
-      <c r="R84" s="42"/>
+      <c r="R84" s="42">
+        <v>4.5</v>
+      </c>
       <c r="S84" s="42"/>
       <c r="T84" s="42"/>
       <c r="U84" s="42"/>
@@ -6136,21 +6170,21 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="75"/>
+      <c r="B85" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="62" t="s">
+      <c r="C85" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="66" t="s">
+      <c r="D85" s="72"/>
+      <c r="E85" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="66" t="s">
+      <c r="F85" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G85" s="68"/>
+      <c r="G85" s="124"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
@@ -6162,8 +6196,8 @@
         <v>2</v>
       </c>
       <c r="K85" s="9">
-        <f>SUM(L85:O85)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="L85" s="41"/>
       <c r="M85" s="41"/>
@@ -6187,22 +6221,26 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="59"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="55" t="str">
+      <c r="A86" s="76"/>
+      <c r="B86" s="78"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="52" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="10">
-        <f>SUM(L86:O86)</f>
-        <v>0</v>
+      <c r="I86" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J86" s="52">
+        <v>2</v>
+      </c>
+      <c r="K86" s="9">
+        <f t="shared" si="19"/>
+        <v>3</v>
       </c>
       <c r="L86" s="42"/>
       <c r="M86" s="42"/>
@@ -6210,7 +6248,9 @@
       <c r="O86" s="42"/>
       <c r="P86" s="42"/>
       <c r="Q86" s="42"/>
-      <c r="R86" s="42"/>
+      <c r="R86" s="42">
+        <v>3</v>
+      </c>
       <c r="S86" s="42"/>
       <c r="T86" s="42"/>
       <c r="U86" s="42"/>
@@ -6222,23 +6262,23 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="80" t="s">
+      <c r="A87" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="88"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="82"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="118"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I87" s="20"/>
       <c r="J87" s="20"/>
-      <c r="K87" s="48" cm="1">
-        <f t="array" ref="K87">SUMPRODUCT((MOD(ROW(K$89:K$100),2)=1)*K$89:K$100)</f>
-        <v>0</v>
+      <c r="K87" s="9">
+        <f t="shared" si="19"/>
+        <v>16.61</v>
       </c>
       <c r="L87" s="21" cm="1">
         <f t="array" ref="L87">SUMPRODUCT((MOD(ROW(L$89:L$100),2)=1)*L$89:L$100)</f>
@@ -6266,7 +6306,7 @@
       </c>
       <c r="R87" s="21" cm="1">
         <f t="array" ref="R87">SUMPRODUCT((MOD(ROW(R$89:R$100),2)=1)*R$89:R$100)</f>
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="S87" s="21" cm="1">
         <f t="array" ref="S87">SUMPRODUCT((MOD(ROW(S$89:S$100),2)=1)*S$89:S$100)</f>
@@ -6294,21 +6334,21 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="89"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="119"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="K88" s="49" cm="1">
-        <f t="array" ref="K88">SUMPRODUCT((MOD(ROW(K$89:K$100),2)=0)*K$89:K$100)</f>
-        <v>0</v>
+      <c r="K88" s="9">
+        <f t="shared" si="19"/>
+        <v>2.5700000000000003</v>
       </c>
       <c r="L88" s="22" cm="1">
         <f t="array" ref="L88">SUMPRODUCT((MOD(ROW(L$89:L$100),2)=0)*L$89:L$100)</f>
@@ -6336,7 +6376,7 @@
       </c>
       <c r="R88" s="22" cm="1">
         <f t="array" ref="R88">SUMPRODUCT((MOD(ROW(R$89:R$100),2)=0)*R$89:R$100)</f>
-        <v>0</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="S88" s="22" cm="1">
         <f t="array" ref="S88">SUMPRODUCT((MOD(ROW(S$89:S$100),2)=0)*S$89:S$100)</f>
@@ -6364,24 +6404,27 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="58">
+      <c r="A89" s="75">
         <v>1</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="63"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="78"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="64"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
       </c>
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
-      <c r="K89" s="26"/>
+      <c r="K89" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L89" s="41"/>
       <c r="M89" s="41"/>
       <c r="N89" s="41"/>
@@ -6400,20 +6443,23 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="59"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="79"/>
+      <c r="A90" s="76"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="65"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
       </c>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
-      <c r="K90" s="27"/>
+      <c r="K90" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L90" s="42"/>
       <c r="M90" s="42"/>
       <c r="N90" s="42"/>
@@ -6432,19 +6478,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="58"/>
-      <c r="B91" s="60" t="s">
+      <c r="A91" s="75"/>
+      <c r="B91" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="63"/>
-      <c r="E91" s="66" t="s">
+      <c r="D91" s="72"/>
+      <c r="E91" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="66"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="124"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6456,8 +6502,8 @@
         <v>2</v>
       </c>
       <c r="K91" s="9">
-        <f>SUM(L91:O91)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="L91" s="41"/>
       <c r="M91" s="41"/>
@@ -6481,22 +6527,26 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="59"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="55" t="str">
+      <c r="A92" s="76"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I92" s="43"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="10">
-        <f>SUM(L92:O92)</f>
-        <v>0</v>
+      <c r="I92" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J92" s="52">
+        <v>2</v>
+      </c>
+      <c r="K92" s="9">
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="L92" s="42"/>
       <c r="M92" s="42"/>
@@ -6504,7 +6554,9 @@
       <c r="O92" s="42"/>
       <c r="P92" s="42"/>
       <c r="Q92" s="42"/>
-      <c r="R92" s="42"/>
+      <c r="R92" s="42">
+        <v>1</v>
+      </c>
       <c r="S92" s="42"/>
       <c r="T92" s="42"/>
       <c r="U92" s="42"/>
@@ -6516,19 +6568,19 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="58"/>
-      <c r="B93" s="60" t="s">
+      <c r="A93" s="75"/>
+      <c r="B93" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C93" s="62" t="s">
+      <c r="C93" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="66" t="s">
+      <c r="D93" s="72"/>
+      <c r="E93" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="66"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="124"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6536,10 +6588,12 @@
       <c r="I93" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="J93" s="43"/>
+      <c r="J93" s="43">
+        <v>1</v>
+      </c>
       <c r="K93" s="9">
-        <f>SUM(L93:O93)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.2</v>
       </c>
       <c r="L93" s="41"/>
       <c r="M93" s="41"/>
@@ -6547,7 +6601,9 @@
       <c r="O93" s="41"/>
       <c r="P93" s="41"/>
       <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
+      <c r="R93" s="41">
+        <v>0.2</v>
+      </c>
       <c r="S93" s="41"/>
       <c r="T93" s="41"/>
       <c r="U93" s="41"/>
@@ -6559,22 +6615,26 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="59"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="55" t="str">
+      <c r="A94" s="76"/>
+      <c r="B94" s="78"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55"/>
-      <c r="K94" s="10">
-        <f>SUM(L94:O94)</f>
-        <v>0</v>
+      <c r="I94" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" s="52">
+        <v>1</v>
+      </c>
+      <c r="K94" s="9">
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L94" s="42"/>
       <c r="M94" s="42"/>
@@ -6582,7 +6642,9 @@
       <c r="O94" s="42"/>
       <c r="P94" s="42"/>
       <c r="Q94" s="42"/>
-      <c r="R94" s="42"/>
+      <c r="R94" s="42">
+        <v>0.16</v>
+      </c>
       <c r="S94" s="42"/>
       <c r="T94" s="42"/>
       <c r="U94" s="42"/>
@@ -6594,24 +6656,27 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="58">
+      <c r="A95" s="75">
         <v>2</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="78"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="64"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
       </c>
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
-      <c r="K95" s="26"/>
+      <c r="K95" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L95" s="41"/>
       <c r="M95" s="41"/>
       <c r="N95" s="41"/>
@@ -6630,20 +6695,23 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="59"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="79"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="65"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
       </c>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
-      <c r="K96" s="27"/>
+      <c r="K96" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L96" s="42"/>
       <c r="M96" s="42"/>
       <c r="N96" s="42"/>
@@ -6662,19 +6730,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="58"/>
-      <c r="B97" s="60" t="s">
+      <c r="A97" s="75"/>
+      <c r="B97" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="66" t="s">
+      <c r="D97" s="72"/>
+      <c r="E97" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="68"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="124"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6686,8 +6754,8 @@
         <v>5</v>
       </c>
       <c r="K97" s="9">
-        <f>SUM(L97:O97)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="L97" s="41"/>
       <c r="M97" s="41"/>
@@ -6709,22 +6777,26 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="59"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="67"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="55" t="str">
+      <c r="A98" s="76"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="73"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I98" s="43"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="10">
-        <f>SUM(L98:O98)</f>
-        <v>0</v>
+      <c r="I98" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" s="52">
+        <v>5</v>
+      </c>
+      <c r="K98" s="9">
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="L98" s="42"/>
       <c r="M98" s="42"/>
@@ -6732,7 +6804,9 @@
       <c r="O98" s="42"/>
       <c r="P98" s="42"/>
       <c r="Q98" s="42"/>
-      <c r="R98" s="42"/>
+      <c r="R98" s="42">
+        <v>1.25</v>
+      </c>
       <c r="S98" s="42"/>
       <c r="T98" s="42"/>
       <c r="U98" s="42"/>
@@ -6744,19 +6818,19 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="60" t="s">
+      <c r="A99" s="75"/>
+      <c r="B99" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="66" t="s">
+      <c r="D99" s="72"/>
+      <c r="E99" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="66"/>
-      <c r="G99" s="68"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="124"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6768,8 +6842,8 @@
         <v>1</v>
       </c>
       <c r="K99" s="9">
-        <f>SUM(L99:O99)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L99" s="41"/>
       <c r="M99" s="41"/>
@@ -6791,22 +6865,26 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="59"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="55" t="str">
+      <c r="A100" s="76"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="52" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I100" s="43"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="10">
-        <f>SUM(L100:O100)</f>
-        <v>0</v>
+      <c r="I100" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J100" s="52">
+        <v>1</v>
+      </c>
+      <c r="K100" s="9">
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L100" s="42"/>
       <c r="M100" s="42"/>
@@ -6814,7 +6892,9 @@
       <c r="O100" s="42"/>
       <c r="P100" s="42"/>
       <c r="Q100" s="42"/>
-      <c r="R100" s="42"/>
+      <c r="R100" s="42">
+        <v>0.16</v>
+      </c>
       <c r="S100" s="42"/>
       <c r="T100" s="42"/>
       <c r="U100" s="42"/>
@@ -6826,23 +6906,23 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="80" t="s">
+      <c r="A101" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="81"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="88"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="82"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="118"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
-      <c r="K101" s="50" cm="1">
-        <f t="array" ref="K101">SUMPRODUCT((MOD(ROW(K$103:K$114),2)=1)*K$103:K$114)</f>
-        <v>0</v>
+      <c r="K101" s="9">
+        <f t="shared" si="19"/>
+        <v>4.07</v>
       </c>
       <c r="L101" s="21" cm="1">
         <f t="array" ref="L101">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=1)*L$103:L$114)</f>
@@ -6898,20 +6978,20 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="89"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="119"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="K102" s="48" cm="1">
-        <f t="array" ref="K102">SUMPRODUCT((MOD(ROW(K$103:K$114),2)=0)*K$103:K$114)</f>
+      <c r="K102" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L102" s="22" cm="1">
@@ -6968,24 +7048,27 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58">
+      <c r="A103" s="75">
         <v>1</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="64"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
       </c>
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
-      <c r="K103" s="26"/>
+      <c r="K103" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L103" s="41"/>
       <c r="M103" s="41"/>
       <c r="N103" s="41"/>
@@ -7004,20 +7087,23 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="59"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="79"/>
+      <c r="A104" s="76"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="65"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
       </c>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
-      <c r="K104" s="27"/>
+      <c r="K104" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
       <c r="N104" s="42"/>
@@ -7036,19 +7122,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="60" t="s">
+      <c r="A105" s="75"/>
+      <c r="B105" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D105" s="63"/>
-      <c r="E105" s="66" t="s">
+      <c r="D105" s="72"/>
+      <c r="E105" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="66"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="124"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -7060,8 +7146,8 @@
         <v>5</v>
       </c>
       <c r="K105" s="9">
-        <f>SUM(L105:O105)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>2.5</v>
       </c>
       <c r="L105" s="41"/>
       <c r="M105" s="41"/>
@@ -7083,21 +7169,21 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="59"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="55" t="str">
+      <c r="A106" s="76"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="55"/>
-      <c r="J106" s="55"/>
-      <c r="K106" s="10">
-        <f>SUM(L106:O106)</f>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L106" s="42"/>
@@ -7118,19 +7204,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="58"/>
-      <c r="B107" s="60" t="s">
+      <c r="A107" s="75"/>
+      <c r="B107" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="72"/>
+      <c r="E107" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="124"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7142,8 +7228,8 @@
         <v>1</v>
       </c>
       <c r="K107" s="9">
-        <f>SUM(L107:O107)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L107" s="41"/>
       <c r="M107" s="41"/>
@@ -7165,21 +7251,21 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59"/>
-      <c r="B108" s="61"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="61"/>
-      <c r="H108" s="55" t="str">
+      <c r="A108" s="76"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
-      <c r="K108" s="10">
-        <f>SUM(L108:O108)</f>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
+      <c r="K108" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L108" s="42"/>
@@ -7200,24 +7286,27 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="58">
+      <c r="A109" s="75">
         <v>2</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="78"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="64"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
       </c>
       <c r="I109" s="24"/>
       <c r="J109" s="24"/>
-      <c r="K109" s="26"/>
+      <c r="K109" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L109" s="41"/>
       <c r="M109" s="41"/>
       <c r="N109" s="41"/>
@@ -7236,20 +7325,23 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="59"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="79"/>
+      <c r="A110" s="76"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="65"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
       </c>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
-      <c r="K110" s="27"/>
+      <c r="K110" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L110" s="42"/>
       <c r="M110" s="42"/>
       <c r="N110" s="42"/>
@@ -7268,19 +7360,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="58"/>
-      <c r="B111" s="60" t="s">
+      <c r="A111" s="75"/>
+      <c r="B111" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="63"/>
-      <c r="E111" s="66" t="s">
+      <c r="D111" s="72"/>
+      <c r="E111" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="66"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="124"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7292,8 +7384,8 @@
         <v>5</v>
       </c>
       <c r="K111" s="9">
-        <f>SUM(L111:O111)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1.25</v>
       </c>
       <c r="L111" s="41"/>
       <c r="M111" s="41"/>
@@ -7315,21 +7407,21 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="59"/>
-      <c r="B112" s="61"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="67"/>
-      <c r="F112" s="67"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="55" t="str">
+      <c r="A112" s="76"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="78"/>
+      <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="55"/>
-      <c r="J112" s="55"/>
-      <c r="K112" s="10">
-        <f>SUM(L112:O112)</f>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
+      <c r="K112" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L112" s="42"/>
@@ -7350,19 +7442,19 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="58"/>
-      <c r="B113" s="60" t="s">
+      <c r="A113" s="75"/>
+      <c r="B113" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C113" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="63"/>
-      <c r="E113" s="66" t="s">
+      <c r="D113" s="72"/>
+      <c r="E113" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="66"/>
-      <c r="G113" s="68"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="124"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
@@ -7374,8 +7466,8 @@
         <v>1</v>
       </c>
       <c r="K113" s="9">
-        <f>SUM(L113:O113)</f>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>0.16</v>
       </c>
       <c r="L113" s="41"/>
       <c r="M113" s="41"/>
@@ -7397,21 +7489,21 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="67"/>
-      <c r="F114" s="67"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="55" t="str">
+      <c r="A114" s="76"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="52" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I114" s="55"/>
-      <c r="J114" s="55"/>
-      <c r="K114" s="10">
-        <f>SUM(L114:O114)</f>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="9">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L114" s="42"/>
@@ -7432,6 +7524,10 @@
       <c r="AA114" s="45"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="K115" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="L115" s="36"/>
       <c r="M115" s="36"/>
       <c r="N115" s="36"/>
@@ -7450,44 +7546,271 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="C59:D60"/>
@@ -7512,271 +7835,44 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:D54"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7856,15 +7952,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -8048,6 +8135,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -8058,14 +8154,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8081,4 +8169,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/00_mamagement/WBSガントチャート .xlsx
+++ b/00_mamagement/WBSガントチャート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4279083-635C-4A93-B5DB-E0065B6BF639}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D23165-FDBE-4883-BD58-AB24FD203A6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="315" windowWidth="20280" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="285" windowWidth="20160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSガントチャート" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="85">
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
@@ -338,9 +338,6 @@
   </si>
   <si>
     <t>ユースケース図</t>
-  </si>
-  <si>
-    <t>栢沼</t>
   </si>
   <si>
     <t>ユースケース記述</t>
@@ -496,6 +493,13 @@
   </si>
   <si>
     <t>横井、鈴木、栢沼、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浜崎</t>
+    <rPh sb="0" eb="2">
+      <t>ハマザキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1430,6 +1434,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,37 +1545,49 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1479,95 +1597,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1586,12 +1626,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1609,36 +1643,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,10 +2210,10 @@
   <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2228,19 +2232,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="A1" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="104" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="92" t="s">
@@ -2252,132 +2256,132 @@
       <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="58">
+      <c r="L1" s="87">
         <v>43990</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="58">
+      <c r="M1" s="88"/>
+      <c r="N1" s="87">
         <v>43991</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="58">
+      <c r="O1" s="88"/>
+      <c r="P1" s="87">
         <v>43992</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="58">
+      <c r="Q1" s="88"/>
+      <c r="R1" s="87">
         <v>43993</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="58">
+      <c r="S1" s="88"/>
+      <c r="T1" s="87">
         <v>43994</v>
       </c>
-      <c r="U1" s="59"/>
-      <c r="V1" s="58">
+      <c r="U1" s="88"/>
+      <c r="V1" s="87">
         <v>43997</v>
       </c>
-      <c r="W1" s="59"/>
+      <c r="W1" s="88"/>
       <c r="X1" s="45"/>
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
       <c r="AA1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="55" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="90"/>
+      <c r="N2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="55" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="90"/>
+      <c r="R2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="55" t="s">
+      <c r="S2" s="90"/>
+      <c r="T2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="56"/>
-      <c r="V2" s="55" t="s">
+      <c r="U2" s="90"/>
+      <c r="V2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="56"/>
+      <c r="W2" s="90"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="57" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="M3" s="91"/>
+      <c r="N3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57" t="s">
+      <c r="O3" s="91"/>
+      <c r="P3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57" t="s">
+      <c r="S3" s="91"/>
+      <c r="T3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57" t="s">
+      <c r="U3" s="91"/>
+      <c r="V3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="57"/>
+      <c r="W3" s="91"/>
       <c r="X3" s="45"/>
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="103"/>
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2420,15 +2424,15 @@
       <c r="AA4" s="45"/>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="122"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
@@ -2496,13 +2500,13 @@
       <c r="AA5" s="45"/>
     </row>
     <row r="6" spans="1:27" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="123"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2544,7 +2548,7 @@
       </c>
       <c r="S6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="T6" s="28">
         <f t="shared" si="1"/>
@@ -2568,15 +2572,15 @@
       <c r="AA6" s="45"/>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2642,13 +2646,13 @@
       <c r="AA7" s="45"/>
     </row>
     <row r="8" spans="1:27" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="113"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2714,17 +2718,17 @@
       <c r="AA8" s="45"/>
     </row>
     <row r="9" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
@@ -2747,13 +2751,13 @@
       <c r="AA9" s="45"/>
     </row>
     <row r="10" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -2776,21 +2780,21 @@
       <c r="AA10" s="45"/>
     </row>
     <row r="11" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="107"/>
+      <c r="B11" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="62"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2825,13 +2829,13 @@
       <c r="AA11" s="45"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="51" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2866,27 +2870,27 @@
       <c r="AA12" s="45"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="62"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J13" s="8">
         <v>4</v>
@@ -2915,19 +2919,19 @@
       <c r="AA13" s="45"/>
     </row>
     <row r="14" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="51" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="51">
         <v>4</v>
@@ -2956,17 +2960,17 @@
       <c r="AA14" s="45"/>
     </row>
     <row r="15" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="69">
+      <c r="A15" s="107">
         <v>2</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="64"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="24" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2992,13 +2996,13 @@
       <c r="AA15" s="45"/>
     </row>
     <row r="16" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="25" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -3024,21 +3028,21 @@
       <c r="AA16" s="45"/>
     </row>
     <row r="17" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="62"/>
+      <c r="F17" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3073,13 +3077,13 @@
       <c r="AA17" s="45"/>
     </row>
     <row r="18" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="51" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3114,21 +3118,21 @@
       <c r="AA18" s="45"/>
     </row>
     <row r="19" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
-      <c r="B19" s="77" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="79" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="124"/>
+      <c r="F19" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="65"/>
       <c r="H19" s="43" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3163,13 +3167,13 @@
       <c r="AA19" s="45"/>
     </row>
     <row r="20" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="78"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3204,27 +3208,27 @@
       <c r="AA20" s="45"/>
     </row>
     <row r="21" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="60" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="62"/>
+      <c r="F21" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3253,19 +3257,19 @@
       <c r="AA21" s="45"/>
     </row>
     <row r="22" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="70"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="51" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="51">
         <v>1</v>
@@ -3294,15 +3298,15 @@
       <c r="AA22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="118"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3366,13 +3370,13 @@
       <c r="AA23" s="45"/>
     </row>
     <row r="24" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="119"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="7" t="s">
         <v>23</v>
       </c>
@@ -3436,17 +3440,17 @@
       <c r="AA24" s="45"/>
     </row>
     <row r="25" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="69">
+      <c r="A25" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="64"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="24" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3472,13 +3476,13 @@
       <c r="AA25" s="45"/>
     </row>
     <row r="26" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="70"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="25" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3504,21 +3508,21 @@
       <c r="AA26" s="45"/>
     </row>
     <row r="27" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="69"/>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="60" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G27" s="62"/>
+      <c r="F27" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3553,13 +3557,13 @@
       <c r="AA27" s="45"/>
     </row>
     <row r="28" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="70"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="51" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3594,27 +3598,27 @@
       <c r="AA28" s="45"/>
     </row>
     <row r="29" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="69"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="60" t="s">
+      <c r="C29" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="62"/>
+      <c r="F29" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J29" s="8">
         <v>4</v>
@@ -3643,19 +3647,19 @@
       <c r="AA29" s="45"/>
     </row>
     <row r="30" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="70"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="69"/>
       <c r="H30" s="51" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" s="51">
         <v>4</v>
@@ -3684,27 +3688,27 @@
       <c r="AA30" s="45"/>
     </row>
     <row r="31" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="69"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="60" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="62"/>
+      <c r="F31" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I31" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -3733,19 +3737,19 @@
       <c r="AA31" s="45"/>
     </row>
     <row r="32" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="70"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="51" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J32" s="51">
         <v>1</v>
@@ -3774,27 +3778,27 @@
       <c r="AA32" s="45"/>
     </row>
     <row r="33" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="69"/>
-      <c r="B33" s="68" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="60" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="62"/>
+      <c r="F33" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="68"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J33" s="8">
         <v>1</v>
@@ -3823,19 +3827,19 @@
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="70"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="69"/>
       <c r="H34" s="51" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I34" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34" s="51">
         <v>1</v>
@@ -3864,17 +3868,17 @@
       <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="69">
+      <c r="A35" s="107">
         <v>2</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="64"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="24" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3900,13 +3904,13 @@
       <c r="AA35" s="45"/>
     </row>
     <row r="36" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="65"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="25" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3932,21 +3936,21 @@
       <c r="AA36" s="45"/>
     </row>
     <row r="37" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="69"/>
-      <c r="B37" s="68" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="60" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="62"/>
+      <c r="F37" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="68"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3981,13 +3985,13 @@
       <c r="AA37" s="45"/>
     </row>
     <row r="38" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="70"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="63"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="51" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4022,21 +4026,21 @@
       <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="75"/>
-      <c r="B39" s="77" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="79" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="124"/>
+      <c r="F39" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="65"/>
       <c r="H39" s="43" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4071,13 +4075,13 @@
       <c r="AA39" s="45"/>
     </row>
     <row r="40" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="76"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="78"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4112,27 +4116,27 @@
       <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="69"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="60" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="8">
         <v>1</v>
@@ -4161,19 +4165,19 @@
       <c r="AA41" s="45"/>
     </row>
     <row r="42" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="70"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="69"/>
       <c r="H42" s="51" t="str">
         <f>IF(E41="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J42" s="51">
         <v>1</v>
@@ -4202,15 +4206,15 @@
       <c r="AA42" s="45"/>
     </row>
     <row r="43" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="118"/>
+      <c r="A43" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4274,13 +4278,13 @@
       <c r="AA43" s="45"/>
     </row>
     <row r="44" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="84"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="119"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="7" t="s">
         <v>23</v>
       </c>
@@ -4344,17 +4348,17 @@
       <c r="AA44" s="45"/>
     </row>
     <row r="45" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="69">
+      <c r="A45" s="107">
         <v>1</v>
       </c>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="64"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="24" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -4380,13 +4384,13 @@
       <c r="AA45" s="45"/>
     </row>
     <row r="46" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="70"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="65"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="25" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -4412,21 +4416,21 @@
       <c r="AA46" s="45"/>
     </row>
     <row r="47" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="75"/>
-      <c r="B47" s="77" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="79" t="s">
+      <c r="C47" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="124"/>
+      <c r="F47" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="65"/>
       <c r="H47" s="43" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4461,19 +4465,19 @@
       <c r="AA47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="76"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="78"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" s="52">
         <v>1</v>
@@ -4502,21 +4506,21 @@
       <c r="AA48" s="45"/>
     </row>
     <row r="49" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="69"/>
-      <c r="B49" s="68" t="s">
+      <c r="A49" s="107"/>
+      <c r="B49" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="60" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="62"/>
+      <c r="F49" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4553,13 +4557,13 @@
       <c r="AA49" s="45"/>
     </row>
     <row r="50" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="51" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4596,21 +4600,21 @@
       <c r="AA50" s="45"/>
     </row>
     <row r="51" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="75"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="79" t="s">
+      <c r="C51" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="124"/>
+      <c r="F51" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="65"/>
       <c r="H51" s="43" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4647,13 +4651,13 @@
       <c r="AA51" s="45"/>
     </row>
     <row r="52" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="76"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="78"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4690,17 +4694,17 @@
       <c r="AA52" s="45"/>
     </row>
     <row r="53" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="69">
+      <c r="A53" s="107">
         <v>2</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="64"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="24" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4726,13 +4730,13 @@
       <c r="AA53" s="45"/>
     </row>
     <row r="54" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="70"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="65"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="25" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
@@ -4758,21 +4762,21 @@
       <c r="AA54" s="45"/>
     </row>
     <row r="55" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="69"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="107"/>
+      <c r="B55" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="71" t="s">
+      <c r="C55" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F55" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="62"/>
+      <c r="F55" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="68"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4807,13 +4811,13 @@
       <c r="AA55" s="45"/>
     </row>
     <row r="56" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="70"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="63"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="51" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4848,21 +4852,21 @@
       <c r="AA56" s="45"/>
     </row>
     <row r="57" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="69"/>
-      <c r="B57" s="68" t="s">
+      <c r="A57" s="107"/>
+      <c r="B57" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="60" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G57" s="62"/>
+      <c r="F57" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="68"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v>予定</v>
@@ -4897,13 +4901,13 @@
       <c r="AA57" s="45"/>
     </row>
     <row r="58" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="70"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="63"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="69"/>
       <c r="H58" s="51" t="str">
         <f>IF(E57="","","実績")</f>
         <v>実績</v>
@@ -4938,27 +4942,27 @@
       <c r="AA58" s="45"/>
     </row>
     <row r="59" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="69"/>
-      <c r="B59" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="71" t="s">
+      <c r="A59" s="107"/>
+      <c r="B59" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="60" t="s">
+      <c r="D59" s="60"/>
+      <c r="E59" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="62"/>
+      <c r="F59" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="68"/>
       <c r="H59" s="8" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J59" s="8">
         <v>1</v>
@@ -4987,19 +4991,19 @@
       <c r="AA59" s="45"/>
     </row>
     <row r="60" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="70"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="63"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="51" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J60" s="51">
         <v>1</v>
@@ -5028,15 +5032,15 @@
       <c r="AA60" s="45"/>
     </row>
     <row r="61" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="118"/>
+      <c r="A61" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="85"/>
       <c r="H61" s="20" t="s">
         <v>21</v>
       </c>
@@ -5100,13 +5104,13 @@
       <c r="AA61" s="45"/>
     </row>
     <row r="62" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="84"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="119"/>
+      <c r="A62" s="80"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="86"/>
       <c r="H62" s="7" t="s">
         <v>23</v>
       </c>
@@ -5170,17 +5174,17 @@
       <c r="AA62" s="45"/>
     </row>
     <row r="63" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="75">
+      <c r="A63" s="55">
         <v>1</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="64"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
       <c r="H63" s="24" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -5206,13 +5210,13 @@
       <c r="AA63" s="45"/>
     </row>
     <row r="64" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="76"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="65"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="25" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
@@ -5238,21 +5242,21 @@
       <c r="AA64" s="45"/>
     </row>
     <row r="65" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="75"/>
-      <c r="B65" s="77" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="79" t="s">
+      <c r="C65" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="124"/>
+      <c r="F65" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" s="65"/>
       <c r="H65" s="43" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5287,13 +5291,13 @@
       <c r="AA65" s="45"/>
     </row>
     <row r="66" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="76"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="78"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5332,21 +5336,21 @@
       <c r="AA66" s="45"/>
     </row>
     <row r="67" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="75"/>
-      <c r="B67" s="77" t="s">
+      <c r="A67" s="55"/>
+      <c r="B67" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="79" t="s">
+      <c r="C67" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="60"/>
+      <c r="E67" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G67" s="124"/>
+      <c r="F67" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="65"/>
       <c r="H67" s="43" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5381,13 +5385,13 @@
       <c r="AA67" s="45"/>
     </row>
     <row r="68" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="76"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="78"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5424,27 +5428,27 @@
       <c r="AA68" s="45"/>
     </row>
     <row r="69" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="75"/>
-      <c r="B69" s="77" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="72"/>
-      <c r="E69" s="79" t="s">
+      <c r="C69" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" s="124"/>
+      <c r="F69" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="65"/>
       <c r="H69" s="43" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J69" s="43">
         <v>5</v>
@@ -5473,19 +5477,19 @@
       <c r="AA69" s="45"/>
     </row>
     <row r="70" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="76"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="78"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J70" s="52">
         <v>3</v>
@@ -5514,17 +5518,17 @@
       <c r="AA70" s="45"/>
     </row>
     <row r="71" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="75">
+      <c r="A71" s="55">
         <v>2</v>
       </c>
-      <c r="B71" s="71" t="s">
+      <c r="B71" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="89"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="64"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="75"/>
       <c r="H71" s="24" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -5553,13 +5557,13 @@
       <c r="AA71" s="45"/>
     </row>
     <row r="72" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="76"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="65"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="25" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
@@ -5588,21 +5592,21 @@
       <c r="AA72" s="45"/>
     </row>
     <row r="73" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="75"/>
-      <c r="B73" s="77" t="s">
+      <c r="A73" s="55"/>
+      <c r="B73" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="72"/>
-      <c r="E73" s="79" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="124"/>
+      <c r="F73" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="65"/>
       <c r="H73" s="43" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5637,13 +5641,13 @@
       <c r="AA73" s="45"/>
     </row>
     <row r="74" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="76"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="78"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5678,21 +5682,21 @@
       <c r="AA74" s="45"/>
     </row>
     <row r="75" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="75"/>
-      <c r="B75" s="77" t="s">
+      <c r="A75" s="55"/>
+      <c r="B75" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="71" t="s">
+      <c r="C75" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="79" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F75" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" s="124"/>
+      <c r="F75" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="65"/>
       <c r="H75" s="43" t="str">
         <f>IF(E75="","","予定")</f>
         <v>予定</v>
@@ -5727,13 +5731,13 @@
       <c r="AA75" s="45"/>
     </row>
     <row r="76" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="76"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="78"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="58"/>
       <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v>実績</v>
@@ -5768,21 +5772,21 @@
       <c r="AA76" s="45"/>
     </row>
     <row r="77" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="75"/>
-      <c r="B77" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="71" t="s">
+      <c r="A77" s="55"/>
+      <c r="B77" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="79" t="s">
+      <c r="D77" s="60"/>
+      <c r="E77" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" s="124"/>
+      <c r="F77" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="G77" s="65"/>
       <c r="H77" s="43" t="str">
         <f>IF(E77="","","予定")</f>
         <v>予定</v>
@@ -5817,19 +5821,19 @@
       <c r="AA77" s="45"/>
     </row>
     <row r="78" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="78"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="52" t="str">
         <f>IF(E77="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I78" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J78" s="52">
         <v>1</v>
@@ -5858,15 +5862,15 @@
       <c r="AA78" s="45"/>
     </row>
     <row r="79" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="82"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="118"/>
+      <c r="A79" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="85"/>
       <c r="H79" s="20" t="s">
         <v>21</v>
       </c>
@@ -5930,13 +5934,13 @@
       <c r="AA79" s="45"/>
     </row>
     <row r="80" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="84"/>
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="86"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="119"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="7" t="s">
         <v>23</v>
       </c>
@@ -6000,19 +6004,19 @@
       <c r="AA80" s="45"/>
     </row>
     <row r="81" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="75">
+      <c r="A81" s="55">
         <v>1</v>
       </c>
-      <c r="B81" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="89"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="66" t="s">
+      <c r="B81" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="70"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="66"/>
-      <c r="G81" s="64"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="24" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -6041,13 +6045,13 @@
       <c r="AA81" s="45"/>
     </row>
     <row r="82" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="76"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="25" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -6076,27 +6080,27 @@
       <c r="AA82" s="45"/>
     </row>
     <row r="83" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="75"/>
-      <c r="B83" s="77" t="s">
+      <c r="A83" s="55"/>
+      <c r="B83" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="D83" s="72"/>
-      <c r="E83" s="79" t="s">
+      <c r="C83" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="60"/>
+      <c r="E83" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="79" t="s">
+      <c r="F83" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="124"/>
+      <c r="G83" s="65"/>
       <c r="H83" s="43" t="str">
         <f>IF(E83="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I83" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J83" s="43">
         <v>3</v>
@@ -6127,19 +6131,19 @@
       <c r="AA83" s="45"/>
     </row>
     <row r="84" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="76"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="80"/>
-      <c r="F84" s="80"/>
-      <c r="G84" s="78"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I84" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J84" s="52">
         <v>3</v>
@@ -6170,27 +6174,27 @@
       <c r="AA84" s="45"/>
     </row>
     <row r="85" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="75"/>
-      <c r="B85" s="77" t="s">
+      <c r="A85" s="55"/>
+      <c r="B85" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="72"/>
-      <c r="E85" s="79" t="s">
+      <c r="C85" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="60"/>
+      <c r="E85" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="79" t="s">
+      <c r="F85" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G85" s="124"/>
+      <c r="G85" s="65"/>
       <c r="H85" s="43" t="str">
         <f>IF(E85="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I85" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J85" s="43">
         <v>2</v>
@@ -6221,19 +6225,19 @@
       <c r="AA85" s="45"/>
     </row>
     <row r="86" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="78"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="58"/>
       <c r="H86" s="52" t="str">
         <f>IF(E85="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I86" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J86" s="52">
         <v>2</v>
@@ -6262,15 +6266,15 @@
       <c r="AA86" s="45"/>
     </row>
     <row r="87" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="82"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="118"/>
+      <c r="A87" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="85"/>
       <c r="H87" s="20" t="s">
         <v>21</v>
       </c>
@@ -6334,13 +6338,13 @@
       <c r="AA87" s="45"/>
     </row>
     <row r="88" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="84"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="88"/>
-      <c r="F88" s="88"/>
-      <c r="G88" s="119"/>
+      <c r="A88" s="80"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="86"/>
       <c r="H88" s="7" t="s">
         <v>23</v>
       </c>
@@ -6404,17 +6408,17 @@
       <c r="AA88" s="45"/>
     </row>
     <row r="89" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="75">
+      <c r="A89" s="55">
         <v>1</v>
       </c>
-      <c r="B89" s="71" t="s">
+      <c r="B89" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="89"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="64"/>
+      <c r="C89" s="70"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="75"/>
       <c r="H89" s="24" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -6443,13 +6447,13 @@
       <c r="AA89" s="45"/>
     </row>
     <row r="90" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="76"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="65"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="76"/>
       <c r="H90" s="25" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
@@ -6478,19 +6482,19 @@
       <c r="AA90" s="45"/>
     </row>
     <row r="91" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="75"/>
-      <c r="B91" s="77" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="72"/>
-      <c r="E91" s="79" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="79"/>
-      <c r="G91" s="124"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="43" t="str">
         <f>IF(E91="","","予定")</f>
         <v>予定</v>
@@ -6527,19 +6531,19 @@
       <c r="AA91" s="45"/>
     </row>
     <row r="92" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="76"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="78"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="58"/>
       <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I92" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J92" s="52">
         <v>2</v>
@@ -6568,25 +6572,25 @@
       <c r="AA92" s="45"/>
     </row>
     <row r="93" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="75"/>
-      <c r="B93" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="79" t="s">
+      <c r="A93" s="55"/>
+      <c r="B93" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F93" s="79"/>
-      <c r="G93" s="124"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="65"/>
       <c r="H93" s="43" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I93" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J93" s="43">
         <v>1</v>
@@ -6615,19 +6619,19 @@
       <c r="AA93" s="45"/>
     </row>
     <row r="94" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="76"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="78"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I94" s="52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J94" s="52">
         <v>1</v>
@@ -6656,17 +6660,17 @@
       <c r="AA94" s="45"/>
     </row>
     <row r="95" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="75">
+      <c r="A95" s="55">
         <v>2</v>
       </c>
-      <c r="B95" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C95" s="89"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="64"/>
+      <c r="B95" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="70"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="75"/>
       <c r="H95" s="24" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -6695,13 +6699,13 @@
       <c r="AA95" s="45"/>
     </row>
     <row r="96" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="76"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="74"/>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="65"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="25" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
@@ -6730,19 +6734,19 @@
       <c r="AA96" s="45"/>
     </row>
     <row r="97" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="75"/>
-      <c r="B97" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="D97" s="72"/>
-      <c r="E97" s="79" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="60"/>
+      <c r="E97" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F97" s="79"/>
-      <c r="G97" s="124"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="65"/>
       <c r="H97" s="43" t="str">
         <f>IF(E97="","","予定")</f>
         <v>予定</v>
@@ -6777,13 +6781,13 @@
       <c r="AA97" s="45"/>
     </row>
     <row r="98" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="76"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="73"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="80"/>
-      <c r="G98" s="78"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
         <v>実績</v>
@@ -6818,25 +6822,25 @@
       <c r="AA98" s="45"/>
     </row>
     <row r="99" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="75"/>
-      <c r="B99" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D99" s="72"/>
-      <c r="E99" s="79" t="s">
+      <c r="A99" s="55"/>
+      <c r="B99" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="60"/>
+      <c r="E99" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="79"/>
-      <c r="G99" s="124"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="65"/>
       <c r="H99" s="43" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I99" s="43" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J99" s="43">
         <v>1</v>
@@ -6865,19 +6869,19 @@
       <c r="AA99" s="45"/>
     </row>
     <row r="100" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="73"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="78"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="58"/>
       <c r="H100" s="52" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I100" s="43" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="J100" s="52">
         <v>1</v>
@@ -6906,15 +6910,15 @@
       <c r="AA100" s="45"/>
     </row>
     <row r="101" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" s="82"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="87"/>
-      <c r="G101" s="118"/>
+      <c r="A101" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="85"/>
       <c r="H101" s="20" t="s">
         <v>21</v>
       </c>
@@ -6978,13 +6982,13 @@
       <c r="AA101" s="45"/>
     </row>
     <row r="102" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="84"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="88"/>
-      <c r="F102" s="88"/>
-      <c r="G102" s="119"/>
+      <c r="A102" s="80"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="84"/>
+      <c r="G102" s="86"/>
       <c r="H102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6992,7 +6996,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="L102" s="22" cm="1">
         <f t="array" ref="L102">SUMPRODUCT((MOD(ROW(L$103:L$114),2)=0)*L$103:L$114)</f>
@@ -7024,7 +7028,7 @@
       </c>
       <c r="S102" s="22" cm="1">
         <f t="array" ref="S102">SUMPRODUCT((MOD(ROW(S$103:S$114),2)=0)*S$103:S$114)</f>
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="T102" s="22" cm="1">
         <f t="array" ref="T102">SUMPRODUCT((MOD(ROW(T$103:T$114),2)=0)*T$103:T$114)</f>
@@ -7048,17 +7052,17 @@
       <c r="AA102" s="45"/>
     </row>
     <row r="103" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="75">
+      <c r="A103" s="55">
         <v>1</v>
       </c>
-      <c r="B103" s="71" t="s">
+      <c r="B103" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="89"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="64"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="75"/>
       <c r="H103" s="24" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -7087,13 +7091,13 @@
       <c r="AA103" s="45"/>
     </row>
     <row r="104" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="76"/>
-      <c r="B104" s="73"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="65"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="76"/>
       <c r="H104" s="25" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
@@ -7122,19 +7126,19 @@
       <c r="AA104" s="45"/>
     </row>
     <row r="105" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="75"/>
-      <c r="B105" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D105" s="72"/>
-      <c r="E105" s="79" t="s">
+      <c r="A105" s="55"/>
+      <c r="B105" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="60"/>
+      <c r="E105" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="79"/>
-      <c r="G105" s="124"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="65"/>
       <c r="H105" s="43" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -7169,22 +7173,26 @@
       <c r="AA105" s="45"/>
     </row>
     <row r="106" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="76"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="80"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="78"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="58"/>
       <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I106" s="52"/>
-      <c r="J106" s="52"/>
+      <c r="I106" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J106" s="52">
+        <v>5</v>
+      </c>
       <c r="K106" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L106" s="42"/>
       <c r="M106" s="42"/>
@@ -7193,7 +7201,9 @@
       <c r="P106" s="42"/>
       <c r="Q106" s="42"/>
       <c r="R106" s="42"/>
-      <c r="S106" s="42"/>
+      <c r="S106" s="42">
+        <v>2.5</v>
+      </c>
       <c r="T106" s="42"/>
       <c r="U106" s="42"/>
       <c r="V106" s="42"/>
@@ -7204,19 +7214,19 @@
       <c r="AA106" s="45"/>
     </row>
     <row r="107" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="75"/>
-      <c r="B107" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="72"/>
-      <c r="E107" s="79" t="s">
+      <c r="A107" s="55"/>
+      <c r="B107" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="60"/>
+      <c r="E107" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="79"/>
-      <c r="G107" s="124"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="65"/>
       <c r="H107" s="43" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -7251,22 +7261,26 @@
       <c r="AA107" s="45"/>
     </row>
     <row r="108" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="76"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="73"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="80"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="78"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
+      <c r="I108" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" s="52">
+        <v>1</v>
+      </c>
       <c r="K108" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="L108" s="42"/>
       <c r="M108" s="42"/>
@@ -7275,7 +7289,9 @@
       <c r="P108" s="42"/>
       <c r="Q108" s="42"/>
       <c r="R108" s="42"/>
-      <c r="S108" s="42"/>
+      <c r="S108" s="42">
+        <v>0.16</v>
+      </c>
       <c r="T108" s="42"/>
       <c r="U108" s="42"/>
       <c r="V108" s="42"/>
@@ -7286,17 +7302,17 @@
       <c r="AA108" s="45"/>
     </row>
     <row r="109" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="75">
+      <c r="A109" s="55">
         <v>2</v>
       </c>
-      <c r="B109" s="71" t="s">
+      <c r="B109" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="89"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="64"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="73"/>
+      <c r="F109" s="73"/>
+      <c r="G109" s="75"/>
       <c r="H109" s="24" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -7325,13 +7341,13 @@
       <c r="AA109" s="45"/>
     </row>
     <row r="110" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="76"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="65"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="76"/>
       <c r="H110" s="25" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
@@ -7360,19 +7376,19 @@
       <c r="AA110" s="45"/>
     </row>
     <row r="111" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="75"/>
-      <c r="B111" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="71" t="s">
+      <c r="A111" s="55"/>
+      <c r="B111" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D111" s="72"/>
-      <c r="E111" s="79" t="s">
+      <c r="D111" s="60"/>
+      <c r="E111" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F111" s="79"/>
-      <c r="G111" s="124"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="65"/>
       <c r="H111" s="43" t="str">
         <f>IF(E111="","","予定")</f>
         <v>予定</v>
@@ -7407,22 +7423,26 @@
       <c r="AA111" s="45"/>
     </row>
     <row r="112" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="76"/>
-      <c r="B112" s="78"/>
-      <c r="C112" s="73"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="80"/>
-      <c r="G112" s="78"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="58"/>
       <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="I112" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J112" s="52">
+        <v>5</v>
+      </c>
       <c r="K112" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L112" s="42"/>
       <c r="M112" s="42"/>
@@ -7431,7 +7451,9 @@
       <c r="P112" s="42"/>
       <c r="Q112" s="42"/>
       <c r="R112" s="42"/>
-      <c r="S112" s="42"/>
+      <c r="S112" s="42">
+        <v>1.25</v>
+      </c>
       <c r="T112" s="42"/>
       <c r="U112" s="42"/>
       <c r="V112" s="42"/>
@@ -7442,25 +7464,25 @@
       <c r="AA112" s="45"/>
     </row>
     <row r="113" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="75"/>
-      <c r="B113" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="71" t="s">
+      <c r="A113" s="55"/>
+      <c r="B113" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="72"/>
-      <c r="E113" s="79" t="s">
+      <c r="D113" s="60"/>
+      <c r="E113" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F113" s="79"/>
-      <c r="G113" s="124"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="65"/>
       <c r="H113" s="43" t="str">
         <f>IF(E113="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I113" s="43" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J113" s="43">
         <v>1</v>
@@ -7489,22 +7511,26 @@
       <c r="AA113" s="45"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="76"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="73"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="80"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="78"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="58"/>
       <c r="H114" s="52" t="str">
         <f>IF(E113="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
+      <c r="I114" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J114" s="52">
+        <v>1</v>
+      </c>
       <c r="K114" s="9">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="L114" s="42"/>
       <c r="M114" s="42"/>
@@ -7513,7 +7539,9 @@
       <c r="P114" s="42"/>
       <c r="Q114" s="42"/>
       <c r="R114" s="42"/>
-      <c r="S114" s="42"/>
+      <c r="S114" s="42">
+        <v>0.32</v>
+      </c>
       <c r="T114" s="42"/>
       <c r="U114" s="42"/>
       <c r="V114" s="42"/>
@@ -7546,6 +7574,309 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="327">
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="G113:G114"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D20"/>
@@ -7570,309 +7901,6 @@
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A101:D102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:D54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="P25:W38 L41:W42 L89:W100 L45:W54 L81:W86 L55:M60 O55:W60 L63:W78 L103:W114 L9:W22 L25:O40">
@@ -7952,6 +7980,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -8135,15 +8172,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9132C908-8D5D-4F1A-8728-7001F09281EF}">
   <ds:schemaRefs>
@@ -8154,6 +8182,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E932A4-007A-4570-B3FD-C55B3459AA84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8169,12 +8205,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724E5194-0F94-450A-91D6-6987AE4E187A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>